--- a/Paper/DSN/Restore.xlsx
+++ b/Paper/DSN/Restore.xlsx
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:AN272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q$1:AN$1048576"/>
+      <selection activeCell="I1" sqref="I$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1286,28 +1286,28 @@
         <v>539</v>
       </c>
       <c r="I2" s="2">
-        <v>371.2944</v>
+        <v>68.7677</v>
       </c>
       <c r="J2" s="2">
-        <v>514.6561</v>
+        <v>195.0456</v>
       </c>
       <c r="K2" s="2">
-        <v>805.9199</v>
+        <v>760.4702</v>
       </c>
       <c r="L2" s="2">
-        <v>127.4051</v>
+        <v>790.6133</v>
       </c>
       <c r="M2" s="2">
-        <v>650.2852</v>
+        <v>567.9362</v>
       </c>
       <c r="N2" s="2">
-        <v>924.2763</v>
+        <v>403.6742</v>
       </c>
       <c r="O2" s="2">
-        <v>1265.4714</v>
+        <v>657.8804</v>
       </c>
       <c r="P2" s="2">
-        <v>790.2527</v>
+        <v>733.8119</v>
       </c>
       <c r="Q2">
         <v>189.282</v>
@@ -1408,28 +1408,28 @@
         <v>690.82</v>
       </c>
       <c r="I3" s="2">
-        <v>411.3877</v>
+        <v>168.4612</v>
       </c>
       <c r="J3" s="2">
-        <v>780.3726</v>
+        <v>774.7583</v>
       </c>
       <c r="K3" s="2">
-        <v>822.877</v>
+        <v>816.4853</v>
       </c>
       <c r="L3" s="2">
-        <v>757.4122</v>
+        <v>739.1599</v>
       </c>
       <c r="M3" s="2">
-        <v>650.0998</v>
+        <v>639.5825</v>
       </c>
       <c r="N3" s="2">
-        <v>906.9357</v>
+        <v>906.8506</v>
       </c>
       <c r="O3" s="2">
-        <v>1304.1374</v>
+        <v>1298.6361</v>
       </c>
       <c r="P3" s="2">
-        <v>124.6552</v>
+        <v>94.5928</v>
       </c>
       <c r="Q3">
         <v>270.635</v>
@@ -1530,28 +1530,28 @@
         <v>734.14</v>
       </c>
       <c r="I4" s="2">
-        <v>377.9714</v>
+        <v>434.8722</v>
       </c>
       <c r="J4" s="2">
-        <v>791.3803</v>
+        <v>788.3219</v>
       </c>
       <c r="K4" s="2">
-        <v>816.7985</v>
+        <v>822.0047</v>
       </c>
       <c r="L4" s="2">
-        <v>776.0396</v>
+        <v>782.8147</v>
       </c>
       <c r="M4" s="2">
-        <v>648.3665</v>
+        <v>707.4388</v>
       </c>
       <c r="N4" s="2">
-        <v>916.1072</v>
+        <v>903.3875</v>
       </c>
       <c r="O4" s="2">
-        <v>1289.5646</v>
+        <v>1285.6416</v>
       </c>
       <c r="P4" s="2">
-        <v>109.1373</v>
+        <v>92.857</v>
       </c>
       <c r="Q4">
         <v>331.621</v>
@@ -1652,28 +1652,28 @@
         <v>815.53</v>
       </c>
       <c r="I5" s="2">
-        <v>513.1273</v>
+        <v>429.7294</v>
       </c>
       <c r="J5" s="2">
-        <v>786.2824</v>
+        <v>773.119</v>
       </c>
       <c r="K5" s="2">
-        <v>821.6398</v>
+        <v>813.6076</v>
       </c>
       <c r="L5" s="2">
-        <v>810.0284</v>
+        <v>35.3044</v>
       </c>
       <c r="M5" s="2">
-        <v>675.1483</v>
+        <v>686.4239</v>
       </c>
       <c r="N5" s="2">
-        <v>924.0867</v>
+        <v>912.0362</v>
       </c>
       <c r="O5" s="2">
-        <v>1279.4748</v>
+        <v>1264.4952</v>
       </c>
       <c r="P5" s="2">
-        <v>338.1389</v>
+        <v>199.8862</v>
       </c>
       <c r="Q5">
         <v>372.6</v>
@@ -1774,28 +1774,28 @@
         <v>655.78</v>
       </c>
       <c r="I6" s="2">
-        <v>566.102</v>
+        <v>579.3353</v>
       </c>
       <c r="J6" s="2">
-        <v>788.7732</v>
+        <v>778.0278</v>
       </c>
       <c r="K6" s="2">
-        <v>819.4263</v>
+        <v>809.8578</v>
       </c>
       <c r="L6" s="2">
-        <v>175.0041</v>
+        <v>723.4224</v>
       </c>
       <c r="M6" s="2">
-        <v>709.0672</v>
+        <v>611.2826</v>
       </c>
       <c r="N6" s="2">
-        <v>913.6309</v>
+        <v>906.3299</v>
       </c>
       <c r="O6" s="2">
-        <v>1313.0108</v>
+        <v>1293.2657</v>
       </c>
       <c r="P6" s="2">
-        <v>119.7048</v>
+        <v>130.8986</v>
       </c>
       <c r="Q6">
         <v>324.665</v>
@@ -1896,28 +1896,28 @@
         <v>666.46</v>
       </c>
       <c r="I7" s="2">
-        <v>586.2231</v>
+        <v>605.4154</v>
       </c>
       <c r="J7" s="2">
-        <v>793.7019</v>
+        <v>777.9623</v>
       </c>
       <c r="K7" s="2">
-        <v>818.4746</v>
+        <v>817.8304</v>
       </c>
       <c r="L7" s="2">
-        <v>42.1366</v>
+        <v>839.886</v>
       </c>
       <c r="M7" s="2">
-        <v>652.577</v>
+        <v>593.0296</v>
       </c>
       <c r="N7" s="2">
-        <v>928.3048</v>
+        <v>919.4467</v>
       </c>
       <c r="O7" s="2">
-        <v>1327.1671</v>
+        <v>1295.7759</v>
       </c>
       <c r="P7" s="2">
-        <v>676.6161</v>
+        <v>163.3378</v>
       </c>
       <c r="Q7">
         <v>362.096</v>
@@ -2018,28 +2018,28 @@
         <v>692.01</v>
       </c>
       <c r="I8" s="2">
-        <v>598.2414</v>
+        <v>608.0774</v>
       </c>
       <c r="J8" s="2">
-        <v>784.3877</v>
+        <v>772.6418</v>
       </c>
       <c r="K8" s="2">
-        <v>817.863</v>
+        <v>822.4163</v>
       </c>
       <c r="L8" s="2">
-        <v>796.4373</v>
+        <v>794.8358</v>
       </c>
       <c r="M8" s="2">
-        <v>627.8419</v>
+        <v>146.0201</v>
       </c>
       <c r="N8" s="2">
-        <v>923.0487</v>
+        <v>916.0299</v>
       </c>
       <c r="O8" s="2">
-        <v>1316.6669</v>
+        <v>1303.716</v>
       </c>
       <c r="P8" s="2">
-        <v>139.878</v>
+        <v>562.1377</v>
       </c>
       <c r="Q8">
         <v>269.141</v>
@@ -2140,28 +2140,28 @@
         <v>612.58</v>
       </c>
       <c r="I9" s="2">
-        <v>448.8097</v>
+        <v>452.6531</v>
       </c>
       <c r="J9" s="2">
-        <v>790.3608</v>
+        <v>783.7754</v>
       </c>
       <c r="K9" s="2">
-        <v>823.9809</v>
+        <v>817.5502</v>
       </c>
       <c r="L9" s="2">
-        <v>619.4483</v>
+        <v>410.2913</v>
       </c>
       <c r="M9" s="2">
-        <v>147.8937</v>
+        <v>658.6804</v>
       </c>
       <c r="N9" s="2">
-        <v>917.7246</v>
+        <v>908.7471</v>
       </c>
       <c r="O9" s="2">
-        <v>1313.1486</v>
+        <v>1317.4845</v>
       </c>
       <c r="P9" s="2">
-        <v>105.7802</v>
+        <v>160.4277</v>
       </c>
       <c r="Q9">
         <v>297.778</v>
@@ -2262,28 +2262,28 @@
         <v>544.2</v>
       </c>
       <c r="I10" s="2">
-        <v>463.8335</v>
+        <v>476.9565</v>
       </c>
       <c r="J10" s="2">
-        <v>780.126</v>
+        <v>782.6534</v>
       </c>
       <c r="K10" s="2">
-        <v>818.0522</v>
+        <v>814.2391</v>
       </c>
       <c r="L10" s="2">
-        <v>330.2599</v>
+        <v>528.4258</v>
       </c>
       <c r="M10" s="2">
-        <v>662.8724</v>
+        <v>692.155</v>
       </c>
       <c r="N10" s="2">
-        <v>921.8678</v>
+        <v>914.7486</v>
       </c>
       <c r="O10" s="2">
-        <v>1329.5522</v>
+        <v>1324.2747</v>
       </c>
       <c r="P10" s="2">
-        <v>569.6997</v>
+        <v>119.3559</v>
       </c>
       <c r="Q10">
         <v>328.017</v>
@@ -2384,28 +2384,28 @@
         <v>486.16</v>
       </c>
       <c r="I11" s="2">
-        <v>535.1396</v>
+        <v>539.2421</v>
       </c>
       <c r="J11" s="2">
-        <v>477.6832</v>
+        <v>471.1033</v>
       </c>
       <c r="K11" s="2">
-        <v>808.526</v>
+        <v>676.8938</v>
       </c>
       <c r="L11" s="2">
-        <v>429.4391</v>
+        <v>615.6557</v>
       </c>
       <c r="M11" s="2">
-        <v>568.8987</v>
+        <v>693.6334</v>
       </c>
       <c r="N11" s="2">
-        <v>907.122</v>
+        <v>853.21</v>
       </c>
       <c r="O11" s="2">
-        <v>1327.8171</v>
+        <v>1312.7079</v>
       </c>
       <c r="P11" s="2">
-        <v>146.6944</v>
+        <v>118.8254</v>
       </c>
       <c r="Q11">
         <v>301.781</v>
@@ -2506,28 +2506,28 @@
         <v>314.71</v>
       </c>
       <c r="I12" s="2">
-        <v>578.2033</v>
+        <v>586.8164</v>
       </c>
       <c r="J12" s="2">
-        <v>794.8259</v>
+        <v>790.1158</v>
       </c>
       <c r="K12" s="2">
-        <v>810.5439</v>
+        <v>819.4891</v>
       </c>
       <c r="L12" s="2">
-        <v>706.0947</v>
+        <v>722.5426</v>
       </c>
       <c r="M12" s="2">
-        <v>121.8687</v>
+        <v>144.0043</v>
       </c>
       <c r="N12" s="2">
-        <v>916.3783</v>
+        <v>914.1222</v>
       </c>
       <c r="O12" s="2">
-        <v>1317.7001</v>
+        <v>1316.1349</v>
       </c>
       <c r="P12" s="2">
-        <v>104.3295</v>
+        <v>237.7392</v>
       </c>
       <c r="Q12">
         <v>333.221</v>
@@ -2628,28 +2628,28 @@
         <v>222.7</v>
       </c>
       <c r="I13" s="2">
-        <v>589.7184</v>
+        <v>594.6177</v>
       </c>
       <c r="J13" s="2">
-        <v>783.3477</v>
+        <v>793.973</v>
       </c>
       <c r="K13" s="2">
-        <v>820.2173</v>
+        <v>815.876</v>
       </c>
       <c r="L13" s="2">
-        <v>709.2649</v>
+        <v>738.8618</v>
       </c>
       <c r="M13" s="2">
-        <v>48.4404</v>
+        <v>88.8225</v>
       </c>
       <c r="N13" s="2">
-        <v>923.9768</v>
+        <v>918.9786</v>
       </c>
       <c r="O13" s="2">
-        <v>1334.7345</v>
+        <v>1305.1803</v>
       </c>
       <c r="P13" s="2">
-        <v>489.8069</v>
+        <v>131.2275</v>
       </c>
       <c r="Q13">
         <v>348.898</v>
@@ -2750,28 +2750,28 @@
         <v>206.8</v>
       </c>
       <c r="I14" s="2">
-        <v>450.9045</v>
+        <v>457.2768</v>
       </c>
       <c r="J14" s="2">
-        <v>790.5193</v>
+        <v>774.561</v>
       </c>
       <c r="K14" s="2">
-        <v>801.0596</v>
+        <v>823.1446</v>
       </c>
       <c r="L14" s="2">
-        <v>726.1481</v>
+        <v>461.0907</v>
       </c>
       <c r="M14" s="2">
-        <v>20.5434</v>
+        <v>15.6233</v>
       </c>
       <c r="N14" s="2">
-        <v>928.3066</v>
+        <v>921.8901</v>
       </c>
       <c r="O14" s="2">
-        <v>1345.176</v>
+        <v>1313.0193</v>
       </c>
       <c r="P14" s="2">
-        <v>162.9059</v>
+        <v>81.0511</v>
       </c>
       <c r="Q14">
         <v>279.452</v>
@@ -2872,28 +2872,28 @@
         <v>221.83</v>
       </c>
       <c r="I15" s="2">
-        <v>495.4395</v>
+        <v>498.0439</v>
       </c>
       <c r="J15" s="2">
-        <v>787.205</v>
+        <v>781.774</v>
       </c>
       <c r="K15" s="2">
-        <v>805.5706</v>
+        <v>547.7083</v>
       </c>
       <c r="L15" s="2">
-        <v>641.3469</v>
+        <v>361.0994</v>
       </c>
       <c r="M15" s="2">
-        <v>709.3867</v>
+        <v>571.3776</v>
       </c>
       <c r="N15" s="2">
-        <v>915.1691</v>
+        <v>906.2921</v>
       </c>
       <c r="O15" s="2">
-        <v>1344.9393</v>
+        <v>1329.738</v>
       </c>
       <c r="P15" s="2">
-        <v>110.5247</v>
+        <v>74.8192</v>
       </c>
       <c r="Q15">
         <v>299.659</v>
@@ -2994,28 +2994,28 @@
         <v>205.76</v>
       </c>
       <c r="I16" s="2">
-        <v>445.867</v>
+        <v>452.5784</v>
       </c>
       <c r="J16" s="2">
-        <v>788.3799</v>
+        <v>782.3897</v>
       </c>
       <c r="K16" s="2">
-        <v>819.0117</v>
+        <v>824.861</v>
       </c>
       <c r="L16" s="2">
-        <v>769.7657</v>
+        <v>763.74</v>
       </c>
       <c r="M16" s="2">
-        <v>705.834</v>
+        <v>576.5336</v>
       </c>
       <c r="N16" s="2">
-        <v>930.5836</v>
+        <v>911.0176</v>
       </c>
       <c r="O16" s="2">
-        <v>1309.1564</v>
+        <v>1311.8287</v>
       </c>
       <c r="P16" s="2">
-        <v>91.6673</v>
+        <v>179.0856</v>
       </c>
       <c r="Q16">
         <v>199.807</v>
@@ -3116,28 +3116,28 @@
         <v>212.76</v>
       </c>
       <c r="I17" s="2">
-        <v>451.9763</v>
+        <v>392.1108</v>
       </c>
       <c r="J17" s="2">
-        <v>787.883</v>
+        <v>789.6368</v>
       </c>
       <c r="K17" s="2">
-        <v>800.719</v>
+        <v>806.1684</v>
       </c>
       <c r="L17" s="2">
-        <v>788.5091</v>
+        <v>801.6729</v>
       </c>
       <c r="M17" s="2">
-        <v>697.5339</v>
+        <v>723.1923</v>
       </c>
       <c r="N17" s="2">
-        <v>910.1646</v>
+        <v>924.8781</v>
       </c>
       <c r="O17" s="2">
-        <v>1348.8378</v>
+        <v>1293.4792</v>
       </c>
       <c r="P17" s="2">
-        <v>396.9288</v>
+        <v>87.1211</v>
       </c>
       <c r="Q17">
         <v>225.743</v>
@@ -3238,28 +3238,28 @@
         <v>260.08</v>
       </c>
       <c r="I18" s="2">
-        <v>671.3936</v>
+        <v>663.0151</v>
       </c>
       <c r="J18" s="2">
-        <v>783.7981</v>
+        <v>791.1736</v>
       </c>
       <c r="K18" s="2">
-        <v>810.3862</v>
+        <v>793.3331</v>
       </c>
       <c r="L18" s="2">
-        <v>797.8328</v>
+        <v>127.3486</v>
       </c>
       <c r="M18" s="2">
-        <v>738.6069</v>
+        <v>726.5213</v>
       </c>
       <c r="N18" s="2">
-        <v>927.6412</v>
+        <v>922.0391</v>
       </c>
       <c r="O18" s="2">
-        <v>1350.4956</v>
+        <v>1330.8883</v>
       </c>
       <c r="P18" s="2">
-        <v>74.1724</v>
+        <v>114.092</v>
       </c>
       <c r="Q18">
         <v>369.779</v>
@@ -3360,28 +3360,28 @@
         <v>225.17</v>
       </c>
       <c r="I19" s="2">
-        <v>412.2464</v>
+        <v>409.6801</v>
       </c>
       <c r="J19" s="2">
-        <v>783.9937</v>
+        <v>798.0721</v>
       </c>
       <c r="K19" s="2">
-        <v>818.3221</v>
+        <v>799.7673</v>
       </c>
       <c r="L19" s="2">
-        <v>712.6821</v>
+        <v>131.0648</v>
       </c>
       <c r="M19" s="2">
-        <v>604.3177</v>
+        <v>723.9491</v>
       </c>
       <c r="N19" s="2">
-        <v>914.4327</v>
+        <v>925.44</v>
       </c>
       <c r="O19" s="2">
-        <v>1352.5594</v>
+        <v>1338.8525</v>
       </c>
       <c r="P19" s="2">
-        <v>72.2618</v>
+        <v>112.5722</v>
       </c>
       <c r="Q19">
         <v>225.598</v>
@@ -3482,28 +3482,28 @@
         <v>232.29</v>
       </c>
       <c r="I20" s="2">
-        <v>407.8863</v>
+        <v>408.3638</v>
       </c>
       <c r="J20" s="2">
-        <v>781.7315</v>
+        <v>775.5915</v>
       </c>
       <c r="K20" s="2">
-        <v>809.4584</v>
+        <v>797.1095</v>
       </c>
       <c r="L20" s="2">
-        <v>706.5915</v>
+        <v>90.9028</v>
       </c>
       <c r="M20" s="2">
-        <v>642.0093</v>
+        <v>758.208</v>
       </c>
       <c r="N20" s="2">
-        <v>913.873</v>
+        <v>912.5333</v>
       </c>
       <c r="O20" s="2">
-        <v>1342.6837</v>
+        <v>1322.6145</v>
       </c>
       <c r="P20" s="2">
-        <v>100.3668</v>
+        <v>623.994</v>
       </c>
       <c r="Q20">
         <v>214.632</v>
@@ -3604,28 +3604,28 @@
         <v>302.85</v>
       </c>
       <c r="I21" s="2">
-        <v>614.9946</v>
+        <v>599.2127</v>
       </c>
       <c r="J21" s="2">
-        <v>779.4589</v>
+        <v>790.1179</v>
       </c>
       <c r="K21" s="2">
-        <v>812.3196</v>
+        <v>816.3305</v>
       </c>
       <c r="L21" s="2">
-        <v>770.1458</v>
+        <v>190.2458</v>
       </c>
       <c r="M21" s="2">
-        <v>765.705</v>
+        <v>719.3126</v>
       </c>
       <c r="N21" s="2">
-        <v>920.925</v>
+        <v>927.6093</v>
       </c>
       <c r="O21" s="2">
-        <v>1328.3328</v>
+        <v>1343.8444</v>
       </c>
       <c r="P21" s="2">
-        <v>256.9004</v>
+        <v>147.8921</v>
       </c>
       <c r="Q21">
         <v>323.157</v>
@@ -3726,28 +3726,28 @@
         <v>504</v>
       </c>
       <c r="I22" s="2">
-        <v>596.002</v>
+        <v>601.987</v>
       </c>
       <c r="J22" s="2">
-        <v>543.9825</v>
+        <v>537.5304</v>
       </c>
       <c r="K22" s="2">
-        <v>804.6716</v>
+        <v>799.556</v>
       </c>
       <c r="L22" s="2">
-        <v>721.5983</v>
+        <v>130.9132</v>
       </c>
       <c r="M22" s="2">
-        <v>757.1047</v>
+        <v>719.6814</v>
       </c>
       <c r="N22" s="2">
-        <v>924.3233</v>
+        <v>930.678</v>
       </c>
       <c r="O22" s="2">
-        <v>1344.1827</v>
+        <v>1320.7452</v>
       </c>
       <c r="P22" s="2">
-        <v>104.5011</v>
+        <v>117.7025</v>
       </c>
       <c r="Q22">
         <v>344.413</v>
@@ -3848,28 +3848,28 @@
         <v>939.59</v>
       </c>
       <c r="I23" s="2">
-        <v>559.325</v>
+        <v>548.0117</v>
       </c>
       <c r="J23" s="2">
-        <v>542.1739</v>
+        <v>552.3236</v>
       </c>
       <c r="K23" s="2">
-        <v>815.7475</v>
+        <v>812.0021</v>
       </c>
       <c r="L23" s="2">
-        <v>778.5446</v>
+        <v>143.1685</v>
       </c>
       <c r="M23" s="2">
-        <v>742.6545</v>
+        <v>676.7344</v>
       </c>
       <c r="N23" s="2">
-        <v>921.5393</v>
+        <v>916.6349</v>
       </c>
       <c r="O23" s="2">
-        <v>1330.4486</v>
+        <v>1320.9293</v>
       </c>
       <c r="P23" s="2">
-        <v>118.0849</v>
+        <v>114.7938</v>
       </c>
       <c r="Q23">
         <v>307.369</v>
@@ -3970,28 +3970,28 @@
         <v>1252.82</v>
       </c>
       <c r="I24" s="2">
-        <v>555.3454</v>
+        <v>549.8096</v>
       </c>
       <c r="J24" s="2">
-        <v>548.2754</v>
+        <v>556.1498</v>
       </c>
       <c r="K24" s="2">
-        <v>813.9552</v>
+        <v>816.5467</v>
       </c>
       <c r="L24" s="2">
-        <v>790.8086</v>
+        <v>122.3173</v>
       </c>
       <c r="M24" s="2">
-        <v>647.2691</v>
+        <v>729.541</v>
       </c>
       <c r="N24" s="2">
-        <v>916.135</v>
+        <v>928.5583</v>
       </c>
       <c r="O24" s="2">
-        <v>1328.3181</v>
+        <v>1321.7976</v>
       </c>
       <c r="P24" s="2">
-        <v>1272.7608</v>
+        <v>642.3975</v>
       </c>
       <c r="Q24">
         <v>308.761</v>
@@ -4092,28 +4092,28 @@
         <v>555.06</v>
       </c>
       <c r="I25" s="2">
-        <v>569.1494</v>
+        <v>570.4725</v>
       </c>
       <c r="J25" s="2">
-        <v>562.9709</v>
+        <v>557.8702</v>
       </c>
       <c r="K25" s="2">
-        <v>822.9359</v>
+        <v>815.1055</v>
       </c>
       <c r="L25" s="2">
-        <v>768.8095</v>
+        <v>15.5723</v>
       </c>
       <c r="M25" s="2">
-        <v>173.1952</v>
+        <v>722.7016</v>
       </c>
       <c r="N25" s="2">
-        <v>929.6511</v>
+        <v>915.4093</v>
       </c>
       <c r="O25" s="2">
-        <v>1349.2787</v>
+        <v>1323.7558</v>
       </c>
       <c r="P25" s="2">
-        <v>112.2196</v>
+        <v>131.8153</v>
       </c>
       <c r="Q25">
         <v>313.547</v>
@@ -4214,28 +4214,28 @@
         <v>325.45</v>
       </c>
       <c r="I26" s="2">
-        <v>580.6931</v>
+        <v>571.5045</v>
       </c>
       <c r="J26" s="2">
-        <v>563.9792</v>
+        <v>560.1344</v>
       </c>
       <c r="K26" s="2">
-        <v>815.382</v>
+        <v>817.4337</v>
       </c>
       <c r="L26" s="2">
-        <v>552.1054</v>
+        <v>22.9808</v>
       </c>
       <c r="M26" s="2">
-        <v>109.2317</v>
+        <v>163.776</v>
       </c>
       <c r="N26" s="2">
-        <v>906.6844</v>
+        <v>892.8764</v>
       </c>
       <c r="O26" s="2">
-        <v>1360.0148</v>
+        <v>1347.4775</v>
       </c>
       <c r="P26" s="2">
-        <v>154.03</v>
+        <v>118.5385</v>
       </c>
       <c r="Q26">
         <v>312.803</v>
@@ -4336,28 +4336,28 @@
         <v>491.74</v>
       </c>
       <c r="I27" s="2">
-        <v>576.2819</v>
+        <v>581.5572</v>
       </c>
       <c r="J27" s="2">
-        <v>675.1718</v>
+        <v>684.3475</v>
       </c>
       <c r="K27" s="2">
-        <v>821.1682</v>
+        <v>802.9267</v>
       </c>
       <c r="L27" s="2">
-        <v>203.9794</v>
+        <v>693.8892</v>
       </c>
       <c r="M27" s="2">
-        <v>135.2305</v>
+        <v>109.8419</v>
       </c>
       <c r="N27" s="2">
-        <v>914.558</v>
+        <v>895.4759</v>
       </c>
       <c r="O27" s="2">
-        <v>1338.181</v>
+        <v>1346.5173</v>
       </c>
       <c r="P27" s="2">
-        <v>374.9769</v>
+        <v>194.2059</v>
       </c>
       <c r="Q27">
         <v>311.106</v>
@@ -4458,28 +4458,28 @@
         <v>383.05</v>
       </c>
       <c r="I28" s="2">
-        <v>579.0957</v>
+        <v>576.2533</v>
       </c>
       <c r="J28" s="2">
-        <v>787.1824</v>
+        <v>787.3995</v>
       </c>
       <c r="K28" s="2">
-        <v>822.9255</v>
+        <v>810.531</v>
       </c>
       <c r="L28" s="2">
-        <v>119.3397</v>
+        <v>572.9781</v>
       </c>
       <c r="M28" s="2">
-        <v>25.9969</v>
+        <v>191.7208</v>
       </c>
       <c r="N28" s="2">
-        <v>911.9827</v>
+        <v>900.4218</v>
       </c>
       <c r="O28" s="2">
-        <v>1376.0796</v>
+        <v>1356.2769</v>
       </c>
       <c r="P28" s="2">
-        <v>114.8033</v>
+        <v>241.5229</v>
       </c>
       <c r="Q28">
         <v>315.073</v>
@@ -4580,28 +4580,28 @@
         <v>328.63</v>
       </c>
       <c r="I29" s="2">
-        <v>542.2362</v>
+        <v>538.6173</v>
       </c>
       <c r="J29" s="2">
-        <v>786.584</v>
+        <v>794.1399</v>
       </c>
       <c r="K29" s="2">
-        <v>819.0122</v>
+        <v>818.9371</v>
       </c>
       <c r="L29" s="2">
-        <v>120.2073</v>
+        <v>644.5296</v>
       </c>
       <c r="M29" s="2">
-        <v>45.8092</v>
+        <v>33.0353</v>
       </c>
       <c r="N29" s="2">
-        <v>913.542</v>
+        <v>909.8317</v>
       </c>
       <c r="O29" s="2">
-        <v>1390.2456</v>
+        <v>1342.0652</v>
       </c>
       <c r="P29" s="2">
-        <v>357.7407</v>
+        <v>118.7626</v>
       </c>
       <c r="Q29">
         <v>314.343</v>
@@ -4699,25 +4699,25 @@
         <v>224.69</v>
       </c>
       <c r="I30" s="2">
-        <v>581.0723</v>
+        <v>576.3185</v>
       </c>
       <c r="K30" s="2">
-        <v>818.2218</v>
+        <v>810.1126</v>
       </c>
       <c r="L30" s="2">
-        <v>157.3105</v>
+        <v>755.6037</v>
       </c>
       <c r="M30" s="2">
-        <v>749.1015</v>
+        <v>32.5154</v>
       </c>
       <c r="N30" s="2">
-        <v>904.8349</v>
+        <v>900.9333</v>
       </c>
       <c r="O30" s="2">
-        <v>1387.38</v>
+        <v>1374.2085</v>
       </c>
       <c r="P30" s="2">
-        <v>183.7504</v>
+        <v>110.4616</v>
       </c>
       <c r="Q30">
         <v>313.755</v>
@@ -4815,25 +4815,25 @@
         <v>247.3</v>
       </c>
       <c r="I31" s="2">
-        <v>575.7814</v>
+        <v>575.0904</v>
       </c>
       <c r="K31" s="2">
-        <v>803.3824</v>
+        <v>756.6833</v>
       </c>
       <c r="L31" s="2">
-        <v>141.4253</v>
+        <v>814.0067</v>
       </c>
       <c r="M31" s="2">
-        <v>759.7005</v>
+        <v>757.9732</v>
       </c>
       <c r="N31" s="2">
-        <v>898.9279</v>
+        <v>911.4379</v>
       </c>
       <c r="O31" s="2">
-        <v>1372.1416</v>
+        <v>1344.7864</v>
       </c>
       <c r="P31" s="2">
-        <v>114.3855</v>
+        <v>365.6826</v>
       </c>
       <c r="Q31">
         <v>275.639</v>
@@ -4922,25 +4922,25 @@
         <v>212.55</v>
       </c>
       <c r="I32" s="2">
-        <v>578.5444</v>
+        <v>579.2314</v>
       </c>
       <c r="K32" s="2">
-        <v>812.7426</v>
+        <v>814.7341</v>
       </c>
       <c r="L32" s="2">
-        <v>34.2312</v>
+        <v>714.1664</v>
       </c>
       <c r="M32" s="2">
-        <v>613.2814</v>
+        <v>759.7911</v>
       </c>
       <c r="N32" s="2">
-        <v>905.0616</v>
+        <v>909.3901</v>
       </c>
       <c r="O32" s="2">
-        <v>1375.4634</v>
+        <v>1385.2318</v>
       </c>
       <c r="P32" s="2">
-        <v>263.7447</v>
+        <v>87.6145</v>
       </c>
       <c r="Q32">
         <v>297.424</v>
@@ -5029,25 +5029,25 @@
         <v>261.66</v>
       </c>
       <c r="I33" s="2">
-        <v>581.0658</v>
+        <v>574.6071</v>
       </c>
       <c r="K33" s="2">
-        <v>817.5268</v>
+        <v>648.8563</v>
       </c>
       <c r="L33" s="2">
-        <v>14.9138</v>
+        <v>730.1557</v>
       </c>
       <c r="M33" s="2">
-        <v>762.5432</v>
+        <v>748.0624</v>
       </c>
       <c r="N33" s="2">
-        <v>907.1479</v>
+        <v>900.8067</v>
       </c>
       <c r="O33" s="2">
-        <v>1382.4201</v>
+        <v>1354.7915</v>
       </c>
       <c r="P33" s="2">
-        <v>149.4028</v>
+        <v>81.4219</v>
       </c>
       <c r="Q33">
         <v>296.873</v>
@@ -5136,25 +5136,25 @@
         <v>482.14</v>
       </c>
       <c r="I34" s="2">
-        <v>580.2479</v>
+        <v>577.2846</v>
       </c>
       <c r="K34" s="2">
-        <v>513.4194</v>
+        <v>511.0545</v>
       </c>
       <c r="L34" s="2">
-        <v>834.4666</v>
+        <v>781.5416</v>
       </c>
       <c r="M34" s="2">
-        <v>680.2454</v>
+        <v>754.9529</v>
       </c>
       <c r="N34" s="2">
-        <v>897.7252</v>
+        <v>909.5895</v>
       </c>
       <c r="O34" s="2">
-        <v>1371.1791</v>
+        <v>1372.5949</v>
       </c>
       <c r="P34" s="2">
-        <v>76.0314</v>
+        <v>205.8496</v>
       </c>
       <c r="Q34">
         <v>300.139</v>
@@ -5243,25 +5243,25 @@
         <v>231.43</v>
       </c>
       <c r="I35" s="2">
-        <v>588.5012</v>
+        <v>586.0497</v>
       </c>
       <c r="K35" s="2">
-        <v>275.9383</v>
+        <v>506.3031</v>
       </c>
       <c r="L35" s="2">
-        <v>612.2957</v>
+        <v>819.9517</v>
       </c>
       <c r="M35" s="2">
-        <v>23.3014</v>
+        <v>781.9014</v>
       </c>
       <c r="N35" s="2">
-        <v>903.8586</v>
+        <v>910.3857</v>
       </c>
       <c r="O35" s="2">
-        <v>1358.3466</v>
+        <v>1358.2384</v>
       </c>
       <c r="P35" s="2">
-        <v>74.93</v>
+        <v>82.5639</v>
       </c>
       <c r="Q35">
         <v>298.59</v>
@@ -5350,25 +5350,25 @@
         <v>234.77</v>
       </c>
       <c r="I36" s="2">
-        <v>578.7545</v>
+        <v>585.8645</v>
       </c>
       <c r="K36" s="2">
-        <v>270.9345</v>
+        <v>515.9323</v>
       </c>
       <c r="L36" s="2">
-        <v>848.8001</v>
+        <v>783.8637</v>
       </c>
       <c r="M36" s="2">
-        <v>66.8751</v>
+        <v>760.0267</v>
       </c>
       <c r="N36" s="2">
-        <v>909.0086</v>
+        <v>910.8257</v>
       </c>
       <c r="O36" s="2">
-        <v>1422.9342</v>
+        <v>1429.2946</v>
       </c>
       <c r="P36" s="2">
-        <v>848.0709</v>
+        <v>79.6447</v>
       </c>
       <c r="Q36">
         <v>313.88</v>
@@ -5457,25 +5457,25 @@
         <v>231.34</v>
       </c>
       <c r="I37" s="2">
-        <v>585.479</v>
+        <v>584.2439</v>
       </c>
       <c r="K37" s="2">
-        <v>283.8064</v>
+        <v>387.56</v>
       </c>
       <c r="L37" s="2">
-        <v>795.8209</v>
+        <v>763.8509</v>
       </c>
       <c r="M37" s="2">
-        <v>733.3947</v>
+        <v>736.233</v>
       </c>
       <c r="N37" s="2">
-        <v>911.7336</v>
+        <v>905.6498</v>
       </c>
       <c r="O37" s="2">
-        <v>1422.3865</v>
+        <v>1409.3816</v>
       </c>
       <c r="P37" s="2">
-        <v>94.9537</v>
+        <v>266.5792</v>
       </c>
       <c r="Q37">
         <v>301.59</v>
@@ -5564,25 +5564,25 @@
         <v>209.67</v>
       </c>
       <c r="I38" s="2">
-        <v>579.8323</v>
+        <v>586.0109</v>
       </c>
       <c r="K38" s="2">
-        <v>288.1397</v>
+        <v>249.6359</v>
       </c>
       <c r="L38" s="2">
-        <v>843.6742</v>
+        <v>842.6149</v>
       </c>
       <c r="M38" s="2">
-        <v>537.4976</v>
+        <v>636.5015</v>
       </c>
       <c r="N38" s="2">
-        <v>904.1096</v>
+        <v>911.2999</v>
       </c>
       <c r="O38" s="2">
-        <v>1406.0418</v>
+        <v>1391.7507</v>
       </c>
       <c r="P38" s="2">
-        <v>81.1382</v>
+        <v>85.555</v>
       </c>
       <c r="Q38">
         <v>302.523</v>
@@ -5671,25 +5671,25 @@
         <v>500.97</v>
       </c>
       <c r="I39" s="2">
-        <v>587.6082</v>
+        <v>587.9207</v>
       </c>
       <c r="K39" s="2">
-        <v>287.364</v>
+        <v>247.8153</v>
       </c>
       <c r="L39" s="2">
-        <v>801.4831</v>
+        <v>770.1994</v>
       </c>
       <c r="M39" s="2">
-        <v>723.4111</v>
+        <v>256.5942</v>
       </c>
       <c r="N39" s="2">
-        <v>920.0658</v>
+        <v>897.1252</v>
       </c>
       <c r="O39" s="2">
-        <v>961.5869</v>
+        <v>968.0879</v>
       </c>
       <c r="P39" s="2">
-        <v>107.2977</v>
+        <v>82.7025</v>
       </c>
       <c r="Q39">
         <v>317.654</v>
@@ -5778,25 +5778,25 @@
         <v>266.73</v>
       </c>
       <c r="I40" s="2">
-        <v>578.7334</v>
+        <v>577.8488</v>
       </c>
       <c r="K40" s="2">
-        <v>289.6865</v>
+        <v>247.2515</v>
       </c>
       <c r="L40" s="2">
-        <v>846.3062</v>
+        <v>146.7934</v>
       </c>
       <c r="M40" s="2">
-        <v>627.3086</v>
+        <v>121.8793</v>
       </c>
       <c r="N40" s="2">
-        <v>902.8095</v>
+        <v>913.8346</v>
       </c>
       <c r="O40" s="2">
-        <v>1353.2833</v>
+        <v>1354.0097</v>
       </c>
       <c r="P40" s="2">
-        <v>135.6969</v>
+        <v>204.5972</v>
       </c>
       <c r="Q40">
         <v>321.571</v>
@@ -5885,25 +5885,25 @@
         <v>1307.88</v>
       </c>
       <c r="I41" s="2">
-        <v>589.4649</v>
+        <v>553.9833</v>
       </c>
       <c r="K41" s="2">
-        <v>292.0377</v>
+        <v>253.4425</v>
       </c>
       <c r="L41" s="2">
-        <v>850.7189</v>
+        <v>121.113</v>
       </c>
       <c r="M41" s="2">
-        <v>769.6721</v>
+        <v>170.6537</v>
       </c>
       <c r="N41" s="2">
-        <v>919.1151</v>
+        <v>917.1583</v>
       </c>
       <c r="O41" s="2">
-        <v>1363.4338</v>
+        <v>1371.9466</v>
       </c>
       <c r="P41" s="2">
-        <v>210.5393</v>
+        <v>85.8303</v>
       </c>
       <c r="Q41">
         <v>321.847</v>
@@ -5992,25 +5992,25 @@
         <v>499.2</v>
       </c>
       <c r="I42" s="2">
-        <v>579.1644</v>
+        <v>583.5143</v>
       </c>
       <c r="K42" s="2">
-        <v>201.1605</v>
+        <v>246.2975</v>
       </c>
       <c r="L42" s="2">
-        <v>652.397</v>
+        <v>178.9258</v>
       </c>
       <c r="M42" s="2">
-        <v>743.0916</v>
+        <v>142.8271</v>
       </c>
       <c r="N42" s="2">
-        <v>899.2487</v>
+        <v>903.9816</v>
       </c>
       <c r="O42" s="2">
-        <v>1409.3909</v>
+        <v>1410.3475</v>
       </c>
       <c r="P42" s="2">
-        <v>76.7575</v>
+        <v>81.0845</v>
       </c>
       <c r="Q42">
         <v>309.311</v>
@@ -6099,25 +6099,25 @@
         <v>227.47</v>
       </c>
       <c r="I43" s="2">
-        <v>589.5006</v>
+        <v>595.5761</v>
       </c>
       <c r="K43" s="2">
-        <v>202.3684</v>
+        <v>247.4903</v>
       </c>
       <c r="L43" s="2">
-        <v>802.9969</v>
+        <v>64.1967</v>
       </c>
       <c r="M43" s="2">
-        <v>732.4275</v>
+        <v>20.0725</v>
       </c>
       <c r="N43" s="2">
-        <v>904.7695</v>
+        <v>910.2253</v>
       </c>
       <c r="O43" s="2">
-        <v>1352.9862</v>
+        <v>1404.9427</v>
       </c>
       <c r="P43" s="2">
-        <v>79.7543</v>
+        <v>211.0202</v>
       </c>
       <c r="Q43">
         <v>304.265</v>
@@ -6206,25 +6206,25 @@
         <v>254.75</v>
       </c>
       <c r="I44" s="2">
-        <v>584.9542</v>
+        <v>594.3348</v>
       </c>
       <c r="K44" s="2">
-        <v>205.3624</v>
+        <v>250.9191</v>
       </c>
       <c r="L44" s="2">
-        <v>779.1357</v>
+        <v>18.1249</v>
       </c>
       <c r="M44" s="2">
-        <v>764.8102</v>
+        <v>682.3391</v>
       </c>
       <c r="N44" s="2">
-        <v>911.2537</v>
+        <v>901.9065</v>
       </c>
       <c r="O44" s="2">
-        <v>1393.8268</v>
+        <v>1374.9335</v>
       </c>
       <c r="P44" s="2">
-        <v>761.0817</v>
+        <v>85.263</v>
       </c>
       <c r="Q44">
         <v>277.21</v>
@@ -6313,25 +6313,25 @@
         <v>108.24</v>
       </c>
       <c r="I45" s="2">
-        <v>591.3268</v>
+        <v>589.9199</v>
       </c>
       <c r="K45" s="2">
-        <v>208.8316</v>
+        <v>243.2129</v>
       </c>
       <c r="L45" s="2">
-        <v>111.8417</v>
+        <v>817.3638</v>
       </c>
       <c r="M45" s="2">
-        <v>769.7462</v>
+        <v>767.9806</v>
       </c>
       <c r="N45" s="2">
-        <v>907.8817</v>
+        <v>904.435</v>
       </c>
       <c r="O45" s="2">
-        <v>888.1589</v>
+        <v>883.8196</v>
       </c>
       <c r="P45" s="2">
-        <v>92.2162</v>
+        <v>81.371</v>
       </c>
       <c r="Q45">
         <v>250.299</v>
@@ -6420,25 +6420,25 @@
         <v>226.11</v>
       </c>
       <c r="I46" s="2">
-        <v>594.6782</v>
+        <v>598.4959</v>
       </c>
       <c r="K46" s="2">
-        <v>202.0781</v>
+        <v>246.646</v>
       </c>
       <c r="L46" s="2">
-        <v>145.6138</v>
+        <v>795.987</v>
       </c>
       <c r="M46" s="2">
-        <v>678.9345</v>
+        <v>598.8904</v>
       </c>
       <c r="N46" s="2">
-        <v>919.1674</v>
+        <v>912.2018</v>
       </c>
       <c r="O46" s="2">
-        <v>891.0325</v>
+        <v>872.0858</v>
       </c>
       <c r="P46" s="2">
-        <v>73.882</v>
+        <v>210.4271</v>
       </c>
       <c r="Q46">
         <v>298.945</v>
@@ -6527,25 +6527,25 @@
         <v>257.88</v>
       </c>
       <c r="I47" s="2">
-        <v>579.3049</v>
+        <v>584.7565</v>
       </c>
       <c r="K47" s="2">
-        <v>216.6436</v>
+        <v>250.7488</v>
       </c>
       <c r="L47" s="2">
-        <v>143.5937</v>
+        <v>712.0059</v>
       </c>
       <c r="M47" s="2">
-        <v>750.9196</v>
+        <v>730.3634</v>
       </c>
       <c r="N47" s="2">
-        <v>907.0439</v>
+        <v>613.9123</v>
       </c>
       <c r="O47" s="2">
-        <v>893.489</v>
+        <v>877.8015</v>
       </c>
       <c r="P47" s="2">
-        <v>346.417</v>
+        <v>87.4598</v>
       </c>
       <c r="Q47">
         <v>326.915</v>
@@ -6634,25 +6634,25 @@
         <v>145.82</v>
       </c>
       <c r="I48" s="2">
-        <v>604.9348</v>
+        <v>606.5953</v>
       </c>
       <c r="K48" s="2">
-        <v>230.6689</v>
+        <v>244.1174</v>
       </c>
       <c r="L48" s="2">
-        <v>20.4029</v>
+        <v>847.98</v>
       </c>
       <c r="M48" s="2">
-        <v>163.0686</v>
+        <v>787.9069</v>
       </c>
       <c r="N48" s="2">
-        <v>921.7425</v>
+        <v>908.371</v>
       </c>
       <c r="O48" s="2">
-        <v>728.9097</v>
+        <v>742.2195</v>
       </c>
       <c r="P48" s="2">
-        <v>87.0155</v>
+        <v>80.3645</v>
       </c>
       <c r="Q48">
         <v>316.507</v>
@@ -6741,25 +6741,25 @@
         <v>403.03</v>
       </c>
       <c r="I49" s="2">
-        <v>589.348</v>
+        <v>588.1111</v>
       </c>
       <c r="K49" s="2">
-        <v>225.6377</v>
+        <v>243.0608</v>
       </c>
       <c r="L49" s="2">
-        <v>827.9573</v>
+        <v>765.8201</v>
       </c>
       <c r="M49" s="2">
-        <v>19.1415</v>
+        <v>739.0471</v>
       </c>
       <c r="N49" s="2">
-        <v>921.3372</v>
+        <v>907.0366</v>
       </c>
       <c r="O49" s="2">
-        <v>890.5863</v>
+        <v>890.9449</v>
       </c>
       <c r="P49" s="2">
-        <v>74.6611</v>
+        <v>203.5176</v>
       </c>
       <c r="Q49">
         <v>329.468</v>
@@ -6848,25 +6848,25 @@
         <v>306.24</v>
       </c>
       <c r="I50" s="2">
-        <v>385.6723</v>
+        <v>395.9113</v>
       </c>
       <c r="K50" s="2">
-        <v>235.9268</v>
+        <v>252.2127</v>
       </c>
       <c r="L50" s="2">
-        <v>853.7759</v>
+        <v>755.1857</v>
       </c>
       <c r="M50" s="2">
-        <v>56.6332</v>
+        <v>758.5921</v>
       </c>
       <c r="N50" s="2">
-        <v>922.3041</v>
+        <v>920.2544</v>
       </c>
       <c r="O50" s="2">
-        <v>752.3372</v>
+        <v>746.8671</v>
       </c>
       <c r="P50" s="2">
-        <v>450.2797</v>
+        <v>84.9202</v>
       </c>
       <c r="Q50">
         <v>194.833</v>
@@ -6955,25 +6955,25 @@
         <v>458.77</v>
       </c>
       <c r="I51" s="2">
-        <v>450.8358</v>
+        <v>458.0203</v>
       </c>
       <c r="K51" s="2">
-        <v>231.208</v>
+        <v>251.2008</v>
       </c>
       <c r="L51" s="2">
-        <v>808.0888</v>
+        <v>844.1113</v>
       </c>
       <c r="M51" s="2">
-        <v>608.9339</v>
+        <v>617.0916</v>
       </c>
       <c r="N51" s="2">
-        <v>906.4004</v>
+        <v>925.3952</v>
       </c>
       <c r="O51" s="2">
-        <v>880.8711</v>
+        <v>876.4333</v>
       </c>
       <c r="P51" s="2">
-        <v>97.1705</v>
+        <v>82.0035</v>
       </c>
       <c r="Q51">
         <v>225.655</v>
@@ -7062,25 +7062,25 @@
         <v>463.41</v>
       </c>
       <c r="I52" s="2">
-        <v>393.6721</v>
+        <v>392.4686</v>
       </c>
       <c r="K52" s="2">
-        <v>241.7703</v>
+        <v>250.1249</v>
       </c>
       <c r="L52" s="2">
-        <v>785.5044</v>
+        <v>662.8713</v>
       </c>
       <c r="M52" s="2">
-        <v>720.6939</v>
+        <v>168.0944</v>
       </c>
       <c r="N52" s="2">
-        <v>908.0033</v>
+        <v>915.4006</v>
       </c>
       <c r="O52" s="2">
-        <v>889.3064</v>
+        <v>875.0426</v>
       </c>
       <c r="P52" s="2">
-        <v>77.8058</v>
+        <v>205.6603</v>
       </c>
       <c r="Q52">
         <v>181.525</v>
@@ -7169,25 +7169,25 @@
         <v>471.51</v>
       </c>
       <c r="I53" s="2">
-        <v>389.488</v>
+        <v>387.37</v>
       </c>
       <c r="K53" s="2">
-        <v>255.451</v>
+        <v>251.7853</v>
       </c>
       <c r="L53" s="2">
-        <v>850.7309</v>
+        <v>142.7912</v>
       </c>
       <c r="M53" s="2">
-        <v>712.8027</v>
+        <v>139.1406</v>
       </c>
       <c r="N53" s="2">
-        <v>925.1851</v>
+        <v>918.747</v>
       </c>
       <c r="O53" s="2">
-        <v>879.0877</v>
+        <v>871.1207</v>
       </c>
       <c r="P53" s="2">
-        <v>108.332</v>
+        <v>82.4454</v>
       </c>
       <c r="Q53">
         <v>198.573</v>
@@ -7276,25 +7276,25 @@
         <v>508.23</v>
       </c>
       <c r="I54" s="2">
-        <v>602.1393</v>
+        <v>609.0668</v>
       </c>
       <c r="K54" s="2">
-        <v>249.2853</v>
+        <v>255.8501</v>
       </c>
       <c r="L54" s="2">
-        <v>831.5555</v>
+        <v>128.9034</v>
       </c>
       <c r="M54" s="2">
-        <v>737.3584</v>
+        <v>107.9447</v>
       </c>
       <c r="N54" s="2">
-        <v>923.9934</v>
+        <v>914.5085</v>
       </c>
       <c r="O54" s="2">
-        <v>940.8025</v>
+        <v>967.1942</v>
       </c>
       <c r="P54" s="2">
-        <v>263.6263</v>
+        <v>78.1518</v>
       </c>
       <c r="Q54">
         <v>285.286</v>
@@ -7383,25 +7383,25 @@
         <v>452.99</v>
       </c>
       <c r="I55" s="2">
-        <v>611.8904</v>
+        <v>614.3032</v>
       </c>
       <c r="K55" s="2">
-        <v>245.0516</v>
+        <v>254.1826</v>
       </c>
       <c r="L55" s="2">
-        <v>187.645</v>
+        <v>26.128</v>
       </c>
       <c r="M55" s="2">
-        <v>755.1927</v>
+        <v>17.923</v>
       </c>
       <c r="N55" s="2">
-        <v>927.3742</v>
+        <v>913.1577</v>
       </c>
       <c r="O55" s="2">
-        <v>760.6072</v>
+        <v>755.3665</v>
       </c>
       <c r="P55" s="2">
-        <v>88.53</v>
+        <v>226.1489</v>
       </c>
       <c r="Q55">
         <v>307.107</v>
@@ -7490,25 +7490,25 @@
         <v>306.75</v>
       </c>
       <c r="I56" s="2">
-        <v>619.4235</v>
+        <v>620.9877</v>
       </c>
       <c r="K56" s="2">
-        <v>248.3059</v>
+        <v>245.6735</v>
       </c>
       <c r="L56" s="2">
-        <v>141.5495</v>
+        <v>772.4149</v>
       </c>
       <c r="M56" s="2">
-        <v>658.7495</v>
+        <v>618.658</v>
       </c>
       <c r="N56" s="2">
-        <v>920.7354</v>
+        <v>907.5463</v>
       </c>
       <c r="O56" s="2">
-        <v>182.6165</v>
+        <v>852.8903</v>
       </c>
       <c r="P56" s="2">
-        <v>75.5171</v>
+        <v>84.3508</v>
       </c>
       <c r="Q56">
         <v>312.68</v>
@@ -7597,25 +7597,25 @@
         <v>490.7</v>
       </c>
       <c r="I57" s="2">
-        <v>633.6001</v>
+        <v>646.8264</v>
       </c>
       <c r="K57" s="2">
-        <v>248.1371</v>
+        <v>255.0833</v>
       </c>
       <c r="L57" s="2">
-        <v>26.7873</v>
+        <v>788.4302</v>
       </c>
       <c r="M57" s="2">
-        <v>644.1934</v>
+        <v>742.6085</v>
       </c>
       <c r="N57" s="2">
-        <v>909.8793</v>
+        <v>920.7287</v>
       </c>
       <c r="O57" s="2">
-        <v>633.3111</v>
+        <v>843.4355</v>
       </c>
       <c r="P57" s="2">
-        <v>387.1313</v>
+        <v>79.8124</v>
       </c>
       <c r="Q57">
         <v>314.817</v>
@@ -7704,25 +7704,25 @@
         <v>457.37</v>
       </c>
       <c r="I58" s="2">
-        <v>626.4428</v>
+        <v>623.0301</v>
       </c>
       <c r="K58" s="2">
-        <v>245.6693</v>
+        <v>258.6285</v>
       </c>
       <c r="L58" s="2">
-        <v>581.8426</v>
+        <v>707.0115</v>
       </c>
       <c r="M58" s="2">
-        <v>652.7356</v>
+        <v>750.1205</v>
       </c>
       <c r="N58" s="2">
-        <v>929.8165</v>
+        <v>923.4645</v>
       </c>
       <c r="O58" s="2">
-        <v>852.9213</v>
+        <v>837.5261</v>
       </c>
       <c r="P58" s="2">
-        <v>84.3384</v>
+        <v>195.8619</v>
       </c>
       <c r="Q58">
         <v>298.697</v>
@@ -7811,25 +7811,25 @@
         <v>491.96</v>
       </c>
       <c r="I59" s="2">
-        <v>631.0225</v>
+        <v>652.1706</v>
       </c>
       <c r="K59" s="2">
-        <v>247.706</v>
+        <v>252.768</v>
       </c>
       <c r="L59" s="2">
-        <v>840.2303</v>
+        <v>849.7943</v>
       </c>
       <c r="M59" s="2">
-        <v>740.3589</v>
+        <v>725.1526</v>
       </c>
       <c r="N59" s="2">
-        <v>914.8546</v>
+        <v>908.5882</v>
       </c>
       <c r="O59" s="2">
-        <v>846.4931</v>
+        <v>845.4591</v>
       </c>
       <c r="P59" s="2">
-        <v>81.3383</v>
+        <v>81.9304</v>
       </c>
       <c r="Q59">
         <v>314.391</v>
@@ -7918,25 +7918,25 @@
         <v>441.04</v>
       </c>
       <c r="I60" s="2">
-        <v>650.6617</v>
+        <v>645.3615</v>
       </c>
       <c r="K60" s="2">
-        <v>252.6138</v>
+        <v>246.298</v>
       </c>
       <c r="L60" s="2">
-        <v>854.4366</v>
+        <v>825.1939</v>
       </c>
       <c r="M60" s="2">
-        <v>653.2684</v>
+        <v>698.8314</v>
       </c>
       <c r="N60" s="2">
-        <v>921.3046</v>
+        <v>919.9136</v>
       </c>
       <c r="O60" s="2">
-        <v>848.0478</v>
+        <v>855.3337</v>
       </c>
       <c r="P60" s="2">
-        <v>198.8893</v>
+        <v>79.8279</v>
       </c>
       <c r="Q60">
         <v>310.844</v>
@@ -8025,25 +8025,25 @@
         <v>489.94</v>
       </c>
       <c r="I61" s="2">
-        <v>642.1148</v>
+        <v>633.3842</v>
       </c>
       <c r="K61" s="2">
-        <v>248.2332</v>
+        <v>248.5961</v>
       </c>
       <c r="L61" s="2">
-        <v>710.1514</v>
+        <v>294.5851</v>
       </c>
       <c r="M61" s="2">
-        <v>122.0155</v>
+        <v>729.4714</v>
       </c>
       <c r="N61" s="2">
-        <v>930.8269</v>
+        <v>919.8034</v>
       </c>
       <c r="O61" s="2">
-        <v>851.745</v>
+        <v>861.8733</v>
       </c>
       <c r="P61" s="2">
-        <v>240.0755</v>
+        <v>192.1108</v>
       </c>
       <c r="Q61">
         <v>311.033</v>
@@ -8132,25 +8132,25 @@
         <v>478.09</v>
       </c>
       <c r="I62" s="2">
-        <v>638.9123</v>
+        <v>637.6229</v>
       </c>
       <c r="K62" s="2">
-        <v>256.0029</v>
+        <v>247.0173</v>
       </c>
       <c r="L62" s="2">
-        <v>29.2896</v>
+        <v>141.5133</v>
       </c>
       <c r="M62" s="2">
-        <v>137.6301</v>
+        <v>751.041</v>
       </c>
       <c r="N62" s="2">
-        <v>923.6693</v>
+        <v>921.5307</v>
       </c>
       <c r="O62" s="2">
-        <v>827.5896</v>
+        <v>844.0464</v>
       </c>
       <c r="P62" s="2">
-        <v>113.8955</v>
+        <v>81.9108</v>
       </c>
       <c r="Q62">
         <v>312.713</v>
@@ -8239,25 +8239,25 @@
         <v>448.31</v>
       </c>
       <c r="I63" s="2">
-        <v>638.4875</v>
+        <v>631.7796</v>
       </c>
       <c r="K63" s="2">
-        <v>255.0509</v>
+        <v>227.4215</v>
       </c>
       <c r="L63" s="2">
-        <v>833.1881</v>
+        <v>43.7429</v>
       </c>
       <c r="M63" s="2">
-        <v>147.8644</v>
+        <v>751.9668</v>
       </c>
       <c r="N63" s="2">
-        <v>893.3591</v>
+        <v>914.4575</v>
       </c>
       <c r="O63" s="2">
-        <v>860.1429</v>
+        <v>856.6168</v>
       </c>
       <c r="P63" s="2">
-        <v>381.6784</v>
+        <v>79.3054</v>
       </c>
       <c r="Q63">
         <v>311.201</v>
@@ -8346,25 +8346,25 @@
         <v>457.3</v>
       </c>
       <c r="I64" s="2">
-        <v>646.2454</v>
+        <v>644.2099</v>
       </c>
       <c r="K64" s="2">
-        <v>257.9881</v>
+        <v>212.6915</v>
       </c>
       <c r="L64" s="2">
-        <v>843.2994</v>
+        <v>39.3247</v>
       </c>
       <c r="M64" s="2">
-        <v>20.7286</v>
+        <v>265.8441</v>
       </c>
       <c r="N64" s="2">
-        <v>926.6207</v>
+        <v>925.9153</v>
       </c>
       <c r="O64" s="2">
-        <v>669.8126</v>
+        <v>846.8163</v>
       </c>
       <c r="P64" s="2">
-        <v>114.9504</v>
+        <v>212.4177</v>
       </c>
       <c r="Q64">
         <v>311.055</v>
@@ -8453,25 +8453,25 @@
         <v>475.64</v>
       </c>
       <c r="I65" s="2">
-        <v>644.2122</v>
+        <v>640.55</v>
       </c>
       <c r="K65" s="2">
-        <v>254.441</v>
+        <v>211.112</v>
       </c>
       <c r="L65" s="2">
-        <v>842.0134</v>
+        <v>843.109</v>
       </c>
       <c r="M65" s="2">
-        <v>612.2724</v>
+        <v>182.9505</v>
       </c>
       <c r="N65" s="2">
-        <v>930.6099</v>
+        <v>923.7071</v>
       </c>
       <c r="O65" s="2">
-        <v>849.8514</v>
+        <v>849.9481</v>
       </c>
       <c r="P65" s="2">
-        <v>347.4824</v>
+        <v>81.738</v>
       </c>
       <c r="Q65">
         <v>310.69</v>
@@ -8560,25 +8560,25 @@
         <v>520.2</v>
       </c>
       <c r="I66" s="2">
-        <v>682.2012</v>
+        <v>679.9312</v>
       </c>
       <c r="K66" s="2">
-        <v>255.644</v>
+        <v>207.5176</v>
       </c>
       <c r="L66" s="2">
-        <v>830.6817</v>
+        <v>758.2461</v>
       </c>
       <c r="M66" s="2">
-        <v>752.7033</v>
+        <v>127.9875</v>
       </c>
       <c r="N66" s="2">
-        <v>920.1099</v>
+        <v>914.7912</v>
       </c>
       <c r="O66" s="2">
-        <v>856.9039</v>
+        <v>853.6721</v>
       </c>
       <c r="P66" s="2">
-        <v>87.5514</v>
+        <v>79.1081</v>
       </c>
       <c r="Q66">
         <v>273.005</v>
@@ -8667,25 +8667,25 @@
         <v>452.81</v>
       </c>
       <c r="I67" s="2">
-        <v>683.7203</v>
+        <v>681.2674</v>
       </c>
       <c r="K67" s="2">
-        <v>250.2534</v>
+        <v>196.2588</v>
       </c>
       <c r="L67" s="2">
-        <v>814.2353</v>
+        <v>596.4671</v>
       </c>
       <c r="M67" s="2">
-        <v>751.3389</v>
+        <v>146.5878</v>
       </c>
       <c r="N67" s="2">
-        <v>919.4822</v>
+        <v>913.5688</v>
       </c>
       <c r="O67" s="2">
-        <v>866.0594</v>
+        <v>843.7162</v>
       </c>
       <c r="P67" s="2">
-        <v>74.0751</v>
+        <v>212.1544</v>
       </c>
       <c r="Q67">
         <v>343.164</v>
@@ -8774,25 +8774,25 @@
         <v>450.92</v>
       </c>
       <c r="I68" s="2">
-        <v>620.5061</v>
+        <v>620.7723</v>
       </c>
       <c r="K68" s="2">
-        <v>239.8227</v>
+        <v>230.1535</v>
       </c>
       <c r="L68" s="2">
-        <v>741.3989</v>
+        <v>779.0891</v>
       </c>
       <c r="M68" s="2">
-        <v>738.6525</v>
+        <v>19.6035</v>
       </c>
       <c r="N68" s="2">
-        <v>899.4003</v>
+        <v>909.6294</v>
       </c>
       <c r="O68" s="2">
-        <v>872.059</v>
+        <v>846.1568</v>
       </c>
       <c r="P68" s="2">
-        <v>246.4042</v>
+        <v>83.5239</v>
       </c>
       <c r="Q68">
         <v>344.815</v>
@@ -8881,25 +8881,25 @@
         <v>366.44</v>
       </c>
       <c r="I69" s="2">
-        <v>689.5381</v>
+        <v>675.7871</v>
       </c>
       <c r="K69" s="2">
-        <v>245.271</v>
+        <v>205.9616</v>
       </c>
       <c r="L69" s="2">
-        <v>265.0195</v>
+        <v>732.4939</v>
       </c>
       <c r="M69" s="2">
-        <v>760.7208</v>
+        <v>287.5458</v>
       </c>
       <c r="N69" s="2">
-        <v>927.3732</v>
+        <v>909.3535</v>
       </c>
       <c r="O69" s="2">
-        <v>858.2343</v>
+        <v>850.1737</v>
       </c>
       <c r="P69" s="2">
-        <v>112.8839</v>
+        <v>79.6316</v>
       </c>
       <c r="Q69">
         <v>346.797</v>
@@ -8988,25 +8988,25 @@
         <v>551.17</v>
       </c>
       <c r="I70" s="2">
-        <v>673.2031</v>
+        <v>677.668</v>
       </c>
       <c r="K70" s="2">
-        <v>245.3211</v>
+        <v>253.779</v>
       </c>
       <c r="L70" s="2">
-        <v>25.5989</v>
+        <v>792.9873</v>
       </c>
       <c r="M70" s="2">
-        <v>754.7931</v>
+        <v>673.9129</v>
       </c>
       <c r="N70" s="2">
-        <v>918.4247</v>
+        <v>931.1134</v>
       </c>
       <c r="O70" s="2">
-        <v>880.6764</v>
+        <v>868.9124</v>
       </c>
       <c r="P70" s="2">
-        <v>91.9293</v>
+        <v>76.1923</v>
       </c>
       <c r="Q70">
         <v>345.451</v>
@@ -9095,25 +9095,25 @@
         <v>468.47</v>
       </c>
       <c r="I71" s="2">
-        <v>671.8804</v>
+        <v>678.8882</v>
       </c>
       <c r="K71" s="2">
-        <v>243.592</v>
+        <v>201.6988</v>
       </c>
       <c r="L71" s="2">
-        <v>845.634</v>
+        <v>163.708</v>
       </c>
       <c r="M71" s="2">
-        <v>769.8347</v>
+        <v>596.6425</v>
       </c>
       <c r="N71" s="2">
-        <v>927.0898</v>
+        <v>928.508</v>
       </c>
       <c r="O71" s="2">
-        <v>871.1792</v>
+        <v>863.9093</v>
       </c>
       <c r="P71" s="2">
-        <v>1180.5896</v>
+        <v>141.3347</v>
       </c>
       <c r="Q71">
         <v>332.366</v>
@@ -9202,25 +9202,25 @@
         <v>549.72</v>
       </c>
       <c r="I72" s="2">
-        <v>683.3659</v>
+        <v>673.5824</v>
       </c>
       <c r="K72" s="2">
-        <v>243.1853</v>
+        <v>197.3064</v>
       </c>
       <c r="L72" s="2">
-        <v>828.1216</v>
+        <v>73.4242</v>
       </c>
       <c r="M72" s="2">
-        <v>185.8316</v>
+        <v>732.884</v>
       </c>
       <c r="N72" s="2">
-        <v>929.0885</v>
+        <v>912.8142</v>
       </c>
       <c r="O72" s="2">
-        <v>873.3212</v>
+        <v>874.0349</v>
       </c>
       <c r="P72" s="2">
-        <v>114.9057</v>
+        <v>86.7748</v>
       </c>
       <c r="Q72">
         <v>329.143</v>
@@ -9309,25 +9309,25 @@
         <v>606.95</v>
       </c>
       <c r="I73" s="2">
-        <v>687.3095</v>
+        <v>662.2083</v>
       </c>
       <c r="K73" s="2">
-        <v>241.6116</v>
+        <v>194.8868</v>
       </c>
       <c r="L73" s="2">
-        <v>859.1414</v>
+        <v>35.847</v>
       </c>
       <c r="M73" s="2">
-        <v>183.9498</v>
+        <v>740.8824</v>
       </c>
       <c r="N73" s="2">
-        <v>913.5905</v>
+        <v>926.0175</v>
       </c>
       <c r="O73" s="2">
-        <v>874.1063</v>
+        <v>864.5944</v>
       </c>
       <c r="P73" s="2">
-        <v>207.036</v>
+        <v>107.5468</v>
       </c>
       <c r="Q73">
         <v>335.259</v>
@@ -9416,25 +9416,25 @@
         <v>607.15</v>
       </c>
       <c r="I74" s="2">
-        <v>678.2305</v>
+        <v>668.1545</v>
       </c>
       <c r="K74" s="2">
-        <v>207.4727</v>
+        <v>201.0084</v>
       </c>
       <c r="L74" s="2">
-        <v>838.006</v>
+        <v>826.0298</v>
       </c>
       <c r="M74" s="2">
-        <v>107.4597</v>
+        <v>673.0956</v>
       </c>
       <c r="N74" s="2">
-        <v>928.8101</v>
+        <v>914.745</v>
       </c>
       <c r="O74" s="2">
-        <v>883.333</v>
+        <v>865.4017</v>
       </c>
       <c r="P74" s="2">
-        <v>258.5196</v>
+        <v>128.8122</v>
       </c>
       <c r="Q74">
         <v>334.758</v>
@@ -9523,25 +9523,25 @@
         <v>533.03</v>
       </c>
       <c r="I75" s="2">
-        <v>677.4671</v>
+        <v>667.3756</v>
       </c>
       <c r="K75" s="2">
-        <v>193.2359</v>
+        <v>213.5932</v>
       </c>
       <c r="L75" s="2">
-        <v>759.1503</v>
+        <v>784.3199</v>
       </c>
       <c r="M75" s="2">
-        <v>18.102</v>
+        <v>757.8248</v>
       </c>
       <c r="N75" s="2">
-        <v>898.0173</v>
+        <v>929.2281</v>
       </c>
       <c r="O75" s="2">
-        <v>887.0769</v>
+        <v>874.4804</v>
       </c>
       <c r="P75" s="2">
-        <v>116.8413</v>
+        <v>121.6196</v>
       </c>
       <c r="Q75">
         <v>301.142</v>
@@ -9630,25 +9630,25 @@
         <v>610.14</v>
       </c>
       <c r="I76" s="2">
-        <v>682.2104</v>
+        <v>663.707</v>
       </c>
       <c r="K76" s="2">
-        <v>198.6724</v>
+        <v>206.6359</v>
       </c>
       <c r="L76" s="2">
-        <v>291.0438</v>
+        <v>754.4584</v>
       </c>
       <c r="M76" s="2">
-        <v>753.398</v>
+        <v>192.3205</v>
       </c>
       <c r="N76" s="2">
-        <v>916.1265</v>
+        <v>909.0348</v>
       </c>
       <c r="O76" s="2">
-        <v>884.7522</v>
+        <v>879.6234</v>
       </c>
       <c r="P76" s="2">
-        <v>350.6051</v>
+        <v>400.2752</v>
       </c>
       <c r="Q76">
         <v>306.84</v>
@@ -9737,25 +9737,25 @@
         <v>574.56</v>
       </c>
       <c r="I77" s="2">
-        <v>685.8665</v>
+        <v>666.4473</v>
       </c>
       <c r="K77" s="2">
-        <v>213.2055</v>
+        <v>191.1209</v>
       </c>
       <c r="L77" s="2">
-        <v>136.7663</v>
+        <v>804.597</v>
       </c>
       <c r="M77" s="2">
-        <v>640.6352</v>
+        <v>138.7785</v>
       </c>
       <c r="N77" s="2">
-        <v>924.4687</v>
+        <v>917.7978</v>
       </c>
       <c r="O77" s="2">
-        <v>884.3481</v>
+        <v>883.1005</v>
       </c>
       <c r="P77" s="2">
-        <v>117.9718</v>
+        <v>129.4267</v>
       </c>
       <c r="Q77">
         <v>326.607</v>
@@ -9844,25 +9844,25 @@
         <v>630.87</v>
       </c>
       <c r="I78" s="2">
-        <v>670.9167</v>
+        <v>657.0201</v>
       </c>
       <c r="K78" s="2">
-        <v>187.6274</v>
+        <v>201.4124</v>
       </c>
       <c r="L78" s="2">
-        <v>27.7393</v>
+        <v>206.4501</v>
       </c>
       <c r="M78" s="2">
-        <v>785.8623</v>
+        <v>161.5249</v>
       </c>
       <c r="N78" s="2">
-        <v>929.7853</v>
+        <v>908.9599</v>
       </c>
       <c r="O78" s="2">
-        <v>866.5387</v>
+        <v>868.3507</v>
       </c>
       <c r="P78" s="2">
-        <v>224.6586</v>
+        <v>123.5463</v>
       </c>
       <c r="Q78">
         <v>323.716</v>
@@ -9951,25 +9951,25 @@
         <v>608.78</v>
       </c>
       <c r="I79" s="2">
-        <v>675.5932</v>
+        <v>666.5166</v>
       </c>
       <c r="K79" s="2">
-        <v>194.7957</v>
+        <v>223.1605</v>
       </c>
       <c r="L79" s="2">
-        <v>812.4413</v>
+        <v>163.2086</v>
       </c>
       <c r="M79" s="2">
-        <v>771.6019</v>
+        <v>20.6771</v>
       </c>
       <c r="N79" s="2">
-        <v>929.345</v>
+        <v>914.6991</v>
       </c>
       <c r="O79" s="2">
-        <v>881.1108</v>
+        <v>826.1951</v>
       </c>
       <c r="P79" s="2">
-        <v>236.1463</v>
+        <v>387.1091</v>
       </c>
       <c r="Q79">
         <v>324.284</v>
@@ -10058,25 +10058,25 @@
         <v>665.5</v>
       </c>
       <c r="I80" s="2">
-        <v>670.0474</v>
+        <v>659.2971</v>
       </c>
       <c r="K80" s="2">
-        <v>205.1818</v>
+        <v>203.4047</v>
       </c>
       <c r="L80" s="2">
-        <v>755.8532</v>
+        <v>18.8854</v>
       </c>
       <c r="M80" s="2">
-        <v>707.2626</v>
+        <v>742.9757</v>
       </c>
       <c r="N80" s="2">
-        <v>914.0073</v>
+        <v>914.4076</v>
       </c>
       <c r="O80" s="2">
-        <v>889.6183</v>
+        <v>872.2892</v>
       </c>
       <c r="P80" s="2">
-        <v>118.7107</v>
+        <v>123.9254</v>
       </c>
       <c r="Q80">
         <v>323.178</v>
@@ -10165,25 +10165,25 @@
         <v>576.29</v>
       </c>
       <c r="I81" s="2">
-        <v>671.7874</v>
+        <v>671.4252</v>
       </c>
       <c r="K81" s="2">
-        <v>228.4268</v>
+        <v>187.5658</v>
       </c>
       <c r="L81" s="2">
-        <v>782.5605</v>
+        <v>779.9968</v>
       </c>
       <c r="M81" s="2">
-        <v>770.8686</v>
+        <v>767.8419</v>
       </c>
       <c r="N81" s="2">
-        <v>932.4566</v>
+        <v>924.5428</v>
       </c>
       <c r="O81" s="2">
-        <v>884.1365</v>
+        <v>879.1776</v>
       </c>
       <c r="P81" s="2">
-        <v>323.0473</v>
+        <v>120.1686</v>
       </c>
       <c r="Q81">
         <v>323.449</v>
@@ -10272,25 +10272,25 @@
         <v>552.56</v>
       </c>
       <c r="I82" s="2">
-        <v>681.9112</v>
+        <v>676.217</v>
       </c>
       <c r="K82" s="2">
-        <v>200.9478</v>
+        <v>202.9067</v>
       </c>
       <c r="L82" s="2">
-        <v>827.503</v>
+        <v>799.0837</v>
       </c>
       <c r="M82" s="2">
-        <v>739.0444</v>
+        <v>618.766</v>
       </c>
       <c r="N82" s="2">
-        <v>940.5825</v>
+        <v>936.7991</v>
       </c>
       <c r="O82" s="2">
-        <v>881.6126</v>
+        <v>876.7818</v>
       </c>
       <c r="P82" s="2">
-        <v>115.0336</v>
+        <v>331.2979</v>
       </c>
       <c r="Q82">
         <v>303.843</v>
@@ -10379,25 +10379,25 @@
         <v>593.55</v>
       </c>
       <c r="I83" s="2">
-        <v>684.199</v>
+        <v>677.3732</v>
       </c>
       <c r="K83" s="2">
-        <v>198.0572</v>
+        <v>206.8559</v>
       </c>
       <c r="L83" s="2">
-        <v>446.2756</v>
+        <v>705.7238</v>
       </c>
       <c r="M83" s="2">
-        <v>207.0595</v>
+        <v>687.3475</v>
       </c>
       <c r="N83" s="2">
-        <v>929.1994</v>
+        <v>939.9201</v>
       </c>
       <c r="O83" s="2">
-        <v>870.2135</v>
+        <v>887.1691</v>
       </c>
       <c r="P83" s="2">
-        <v>317.5705</v>
+        <v>76.7921</v>
       </c>
       <c r="Q83">
         <v>315.627</v>
@@ -10486,25 +10486,25 @@
         <v>558.41</v>
       </c>
       <c r="I84" s="2">
-        <v>666.0359</v>
+        <v>668.3829</v>
       </c>
       <c r="K84" s="2">
-        <v>204.6199</v>
+        <v>230.8507</v>
       </c>
       <c r="L84" s="2">
-        <v>147.1797</v>
+        <v>815.0859</v>
       </c>
       <c r="M84" s="2">
-        <v>126.7381</v>
+        <v>739.835</v>
       </c>
       <c r="N84" s="2">
-        <v>927.0636</v>
+        <v>926.1833</v>
       </c>
       <c r="O84" s="2">
-        <v>886.177</v>
+        <v>883.5848</v>
       </c>
       <c r="P84" s="2">
-        <v>113.9923</v>
+        <v>137.0472</v>
       </c>
       <c r="Q84">
         <v>316.886</v>
@@ -10593,25 +10593,25 @@
         <v>533.52</v>
       </c>
       <c r="I85" s="2">
-        <v>669.2239</v>
+        <v>670.486</v>
       </c>
       <c r="K85" s="2">
-        <v>194.6172</v>
+        <v>202.7572</v>
       </c>
       <c r="L85" s="2">
-        <v>31.7387</v>
+        <v>296.8072</v>
       </c>
       <c r="M85" s="2">
-        <v>25.4548</v>
+        <v>670.4964</v>
       </c>
       <c r="N85" s="2">
-        <v>936.7993</v>
+        <v>933.8509</v>
       </c>
       <c r="O85" s="2">
-        <v>850.8206</v>
+        <v>878.6927</v>
       </c>
       <c r="P85" s="2">
-        <v>162.4722</v>
+        <v>530.7668</v>
       </c>
       <c r="Q85">
         <v>317.213</v>
@@ -10700,25 +10700,25 @@
         <v>481.24</v>
       </c>
       <c r="I86" s="2">
-        <v>675.4715</v>
+        <v>672.7531</v>
       </c>
       <c r="K86" s="2">
-        <v>204.1359</v>
+        <v>211.1849</v>
       </c>
       <c r="L86" s="2">
-        <v>747.9426</v>
+        <v>31.0779</v>
       </c>
       <c r="M86" s="2">
-        <v>682.448</v>
+        <v>176.887</v>
       </c>
       <c r="N86" s="2">
-        <v>945.4958</v>
+        <v>939.2745</v>
       </c>
       <c r="O86" s="2">
-        <v>894.2122</v>
+        <v>883.8294</v>
       </c>
       <c r="P86" s="2">
-        <v>287.9633</v>
+        <v>152.267</v>
       </c>
       <c r="Q86">
         <v>317.013</v>
@@ -10807,25 +10807,25 @@
         <v>748.84</v>
       </c>
       <c r="I87" s="2">
-        <v>683.3412</v>
+        <v>683.7241</v>
       </c>
       <c r="K87" s="2">
-        <v>207.8733</v>
+        <v>192.9383</v>
       </c>
       <c r="L87" s="2">
-        <v>732.9919</v>
+        <v>28.1972</v>
       </c>
       <c r="M87" s="2">
-        <v>728.708</v>
+        <v>128.7042</v>
       </c>
       <c r="N87" s="2">
-        <v>934.481</v>
+        <v>923.0411</v>
       </c>
       <c r="O87" s="2">
-        <v>888.1713</v>
+        <v>881.0634</v>
       </c>
       <c r="P87" s="2">
-        <v>111.1578</v>
+        <v>116.7082</v>
       </c>
       <c r="Q87">
         <v>317.049</v>
@@ -10914,25 +10914,25 @@
         <v>664.13</v>
       </c>
       <c r="I88" s="2">
-        <v>673.2206</v>
+        <v>674.8342</v>
       </c>
       <c r="K88" s="2">
-        <v>199.3506</v>
+        <v>221.7572</v>
       </c>
       <c r="L88" s="2">
-        <v>828.4177</v>
+        <v>735.1819</v>
       </c>
       <c r="M88" s="2">
-        <v>778.4966</v>
+        <v>28.6282</v>
       </c>
       <c r="N88" s="2">
-        <v>949.4823</v>
+        <v>942.9624</v>
       </c>
       <c r="O88" s="2">
-        <v>871.74</v>
+        <v>877.7506</v>
       </c>
       <c r="P88" s="2">
-        <v>195.7281</v>
+        <v>114.4993</v>
       </c>
       <c r="Q88">
         <v>320.838</v>
@@ -11021,25 +11021,25 @@
         <v>650.16</v>
       </c>
       <c r="I89" s="2">
-        <v>682.8564</v>
+        <v>677.8974</v>
       </c>
       <c r="K89" s="2">
-        <v>166.0844</v>
+        <v>210.1895</v>
       </c>
       <c r="L89" s="2">
-        <v>843.2478</v>
+        <v>818.7262</v>
       </c>
       <c r="M89" s="2">
-        <v>761.8926</v>
+        <v>721.4562</v>
       </c>
       <c r="N89" s="2">
-        <v>950.7404</v>
+        <v>935.2626</v>
       </c>
       <c r="O89" s="2">
-        <v>869.5378</v>
+        <v>884.5968</v>
       </c>
       <c r="P89" s="2">
-        <v>242.9865</v>
+        <v>439.3676</v>
       </c>
       <c r="Q89">
         <v>298.1</v>
@@ -11128,25 +11128,25 @@
         <v>615.42</v>
       </c>
       <c r="I90" s="2">
-        <v>678.8576</v>
+        <v>676.3229</v>
       </c>
       <c r="K90" s="2">
-        <v>162.1764</v>
+        <v>193.1324</v>
       </c>
       <c r="L90" s="2">
-        <v>75.6539</v>
+        <v>639.2271</v>
       </c>
       <c r="M90" s="2">
-        <v>777.7576</v>
+        <v>663.3606</v>
       </c>
       <c r="N90" s="2">
-        <v>941.5</v>
+        <v>946.024</v>
       </c>
       <c r="O90" s="2">
-        <v>870.4504</v>
+        <v>887.6481</v>
       </c>
       <c r="P90" s="2">
-        <v>109.4024</v>
+        <v>162.9692</v>
       </c>
       <c r="Q90">
         <v>308.485</v>
@@ -11235,25 +11235,25 @@
         <v>619.06</v>
       </c>
       <c r="I91" s="2">
-        <v>679.4415</v>
+        <v>676.2916</v>
       </c>
       <c r="K91" s="2">
-        <v>202.0573</v>
+        <v>192.666</v>
       </c>
       <c r="L91" s="2">
-        <v>48.0187</v>
+        <v>796.6192</v>
       </c>
       <c r="M91" s="2">
-        <v>199.9633</v>
+        <v>757.626</v>
       </c>
       <c r="N91" s="2">
-        <v>947.2785</v>
+        <v>953.3147</v>
       </c>
       <c r="O91" s="2">
-        <v>856.1202</v>
+        <v>873.6411</v>
       </c>
       <c r="P91" s="2">
-        <v>295.2659</v>
+        <v>129.2415</v>
       </c>
       <c r="Q91">
         <v>289.679</v>
@@ -11342,25 +11342,25 @@
         <v>625.66</v>
       </c>
       <c r="I92" s="2">
-        <v>678.1662</v>
+        <v>677.6935</v>
       </c>
       <c r="K92" s="2">
-        <v>217.8309</v>
+        <v>227.6786</v>
       </c>
       <c r="L92" s="2">
-        <v>838.6066</v>
+        <v>148.094</v>
       </c>
       <c r="M92" s="2">
-        <v>131.3475</v>
+        <v>687.2738</v>
       </c>
       <c r="N92" s="2">
-        <v>941.9479</v>
+        <v>929.2281</v>
       </c>
       <c r="O92" s="2">
-        <v>901.788</v>
+        <v>917.5523</v>
       </c>
       <c r="P92" s="2">
-        <v>105.9947</v>
+        <v>122.8795</v>
       </c>
       <c r="Q92">
         <v>300.194</v>
@@ -11449,25 +11449,25 @@
         <v>579.23</v>
       </c>
       <c r="I93" s="2">
-        <v>681.3577</v>
+        <v>663.3036</v>
       </c>
       <c r="K93" s="2">
-        <v>196.4234</v>
+        <v>217.3139</v>
       </c>
       <c r="L93" s="2">
-        <v>769.4468</v>
+        <v>16.2484</v>
       </c>
       <c r="M93" s="2">
-        <v>30.2308</v>
+        <v>378.5579</v>
       </c>
       <c r="N93" s="2">
-        <v>933.9867</v>
+        <v>915.1284</v>
       </c>
       <c r="O93" s="2">
-        <v>903.4467</v>
+        <v>900.6528</v>
       </c>
       <c r="P93" s="2">
-        <v>283.4196</v>
+        <v>188.8161</v>
       </c>
       <c r="Q93">
         <v>314.839</v>
@@ -11556,25 +11556,25 @@
         <v>553.95</v>
       </c>
       <c r="I94" s="2">
-        <v>684.0323</v>
+        <v>683.6919</v>
       </c>
       <c r="K94" s="2">
-        <v>208.3896</v>
+        <v>219.828</v>
       </c>
       <c r="L94" s="2">
-        <v>851.5557</v>
+        <v>820.0939</v>
       </c>
       <c r="M94" s="2">
-        <v>770.5648</v>
+        <v>137.733</v>
       </c>
       <c r="N94" s="2">
-        <v>937.846</v>
+        <v>940.0001</v>
       </c>
       <c r="O94" s="2">
-        <v>905.1457</v>
+        <v>912.6535</v>
       </c>
       <c r="P94" s="2">
-        <v>114.3149</v>
+        <v>287.6281</v>
       </c>
       <c r="Q94">
         <v>305.027</v>
@@ -11663,25 +11663,25 @@
         <v>542.44</v>
       </c>
       <c r="I95" s="2">
-        <v>685.9821</v>
+        <v>672.4464</v>
       </c>
       <c r="K95" s="2">
-        <v>184.0622</v>
+        <v>220.5593</v>
       </c>
       <c r="L95" s="2">
-        <v>827.7051</v>
+        <v>797.5207</v>
       </c>
       <c r="M95" s="2">
-        <v>757.1167</v>
+        <v>18.6654</v>
       </c>
       <c r="N95" s="2">
-        <v>953.8021</v>
+        <v>931.1819</v>
       </c>
       <c r="O95" s="2">
-        <v>926.641</v>
+        <v>927.879</v>
       </c>
       <c r="P95" s="2">
-        <v>205.5229</v>
+        <v>127.2199</v>
       </c>
       <c r="Q95">
         <v>303.629</v>
@@ -11770,25 +11770,25 @@
         <v>1271.86</v>
       </c>
       <c r="I96" s="2">
-        <v>683.9565</v>
+        <v>680.6503</v>
       </c>
       <c r="K96" s="2">
-        <v>198.372</v>
+        <v>161.4708</v>
       </c>
       <c r="L96" s="2">
-        <v>38.6012</v>
+        <v>759.4731</v>
       </c>
       <c r="M96" s="2">
-        <v>742.8227</v>
+        <v>699.1219</v>
       </c>
       <c r="N96" s="2">
-        <v>892.0143</v>
+        <v>899.8902</v>
       </c>
       <c r="O96" s="2">
-        <v>921.7911</v>
+        <v>927.7495</v>
       </c>
       <c r="P96" s="2">
-        <v>239.0632</v>
+        <v>121.7524</v>
       </c>
       <c r="Q96">
         <v>307.491</v>
@@ -11877,25 +11877,25 @@
         <v>411.5</v>
       </c>
       <c r="I97" s="2">
-        <v>690.6702</v>
+        <v>674.4167</v>
       </c>
       <c r="K97" s="2">
-        <v>199.1075</v>
+        <v>196.1791</v>
       </c>
       <c r="L97" s="2">
-        <v>126.1421</v>
+        <v>846.2453</v>
       </c>
       <c r="M97" s="2">
-        <v>454.1195</v>
+        <v>738.9893</v>
       </c>
       <c r="N97" s="2">
-        <v>892.5778</v>
+        <v>888.156</v>
       </c>
       <c r="O97" s="2">
-        <v>911.7591</v>
+        <v>915.747</v>
       </c>
       <c r="P97" s="2">
-        <v>121.0822</v>
+        <v>383.9908</v>
       </c>
       <c r="Q97">
         <v>238.815</v>
@@ -11984,25 +11984,25 @@
         <v>372.19</v>
       </c>
       <c r="I98" s="2">
-        <v>690.3273</v>
+        <v>683.9151</v>
       </c>
       <c r="K98" s="2">
-        <v>215.3343</v>
+        <v>207.066</v>
       </c>
       <c r="L98" s="2">
-        <v>805.3285</v>
+        <v>747.7295</v>
       </c>
       <c r="M98" s="2">
-        <v>149.4783</v>
+        <v>733.3143</v>
       </c>
       <c r="N98" s="2">
-        <v>891.8663</v>
+        <v>673.0789</v>
       </c>
       <c r="O98" s="2">
-        <v>921.0154</v>
+        <v>294.9527</v>
       </c>
       <c r="P98" s="2">
-        <v>221.4742</v>
+        <v>131.0911</v>
       </c>
       <c r="Q98">
         <v>293.98</v>
@@ -12091,25 +12091,25 @@
         <v>544.5</v>
       </c>
       <c r="I99" s="2">
-        <v>684.9136</v>
+        <v>687.5872</v>
       </c>
       <c r="K99" s="2">
-        <v>170.0848</v>
+        <v>214.0395</v>
       </c>
       <c r="L99" s="2">
-        <v>772.2736</v>
+        <v>58.1552</v>
       </c>
       <c r="M99" s="2">
-        <v>30.7981</v>
+        <v>776.6358</v>
       </c>
       <c r="N99" s="2">
-        <v>865.1044</v>
+        <v>873.2645</v>
       </c>
       <c r="O99" s="2">
-        <v>909.7929</v>
+        <v>925.1154</v>
       </c>
       <c r="P99" s="2">
-        <v>237.7127</v>
+        <v>113.0968</v>
       </c>
       <c r="Q99">
         <v>298.818</v>
@@ -12198,25 +12198,25 @@
         <v>713.63</v>
       </c>
       <c r="I100" s="2">
-        <v>697.2747</v>
+        <v>690.1891</v>
       </c>
       <c r="K100" s="2">
-        <v>210.7777</v>
+        <v>212.2205</v>
       </c>
       <c r="L100" s="2">
-        <v>757.2608</v>
+        <v>22.693</v>
       </c>
       <c r="M100" s="2">
-        <v>757.2814</v>
+        <v>735.7389</v>
       </c>
       <c r="N100" s="2">
-        <v>891.5542</v>
+        <v>870.4394</v>
       </c>
       <c r="O100" s="2">
-        <v>947.2841</v>
+        <v>950.5809</v>
       </c>
       <c r="P100" s="2">
-        <v>117.6772</v>
+        <v>114.3954</v>
       </c>
       <c r="Q100">
         <v>297.891</v>
@@ -12302,22 +12302,22 @@
         <v>551.13</v>
       </c>
       <c r="I101" s="2">
-        <v>648.2634</v>
+        <v>630.7308</v>
       </c>
       <c r="K101" s="2">
-        <v>190.1272</v>
+        <v>199.8476</v>
       </c>
       <c r="L101" s="2">
-        <v>466.5817</v>
+        <v>818.8193</v>
       </c>
       <c r="M101" s="2">
-        <v>776.1316</v>
+        <v>99.7187</v>
       </c>
       <c r="O101" s="2">
-        <v>926.3357</v>
+        <v>917.5276</v>
       </c>
       <c r="P101" s="2">
-        <v>147.8674</v>
+        <v>888.5327</v>
       </c>
       <c r="Q101">
         <v>300.429</v>
@@ -12394,13 +12394,13 @@
         <v>604.32</v>
       </c>
       <c r="L102" s="2">
-        <v>130.3691</v>
+        <v>805.5176</v>
       </c>
       <c r="M102" s="2">
-        <v>749.9762</v>
+        <v>19.8329</v>
       </c>
       <c r="P102" s="2">
-        <v>255.7386</v>
+        <v>133.0177</v>
       </c>
       <c r="Q102">
         <v>307.139</v>
@@ -12468,13 +12468,13 @@
         <v>590.51</v>
       </c>
       <c r="L103" s="2">
-        <v>26.9334</v>
+        <v>832.8172</v>
       </c>
       <c r="M103" s="2">
-        <v>753.2988</v>
+        <v>723.1015</v>
       </c>
       <c r="P103" s="2">
-        <v>247.7267</v>
+        <v>122.9437</v>
       </c>
       <c r="T103">
         <v>93.3144</v>
@@ -12512,10 +12512,10 @@
         <v>1288.601036</v>
       </c>
       <c r="L104" s="2">
-        <v>59.1017</v>
+        <v>271.2439</v>
       </c>
       <c r="M104" s="2">
-        <v>129.1123</v>
+        <v>732.5042</v>
       </c>
       <c r="T104">
         <v>61.6409</v>
@@ -12553,10 +12553,10 @@
         <v>1283.073047</v>
       </c>
       <c r="L105" s="2">
-        <v>799.7652</v>
+        <v>39.8073</v>
       </c>
       <c r="M105" s="2">
-        <v>20.8782</v>
+        <v>748.3411</v>
       </c>
       <c r="T105">
         <v>30.365</v>
@@ -12585,10 +12585,10 @@
         <v>1277.73399</v>
       </c>
       <c r="L106" s="2">
-        <v>804.5428</v>
+        <v>39.1964</v>
       </c>
       <c r="M106" s="2">
-        <v>752.1329</v>
+        <v>743.5208</v>
       </c>
       <c r="T106">
         <v>106.647</v>
@@ -12617,10 +12617,10 @@
         <v>1272.669902</v>
       </c>
       <c r="L107" s="2">
-        <v>805.6269</v>
+        <v>803.8466</v>
       </c>
       <c r="M107" s="2">
-        <v>776.7694</v>
+        <v>70.9286</v>
       </c>
       <c r="T107">
         <v>30.3701</v>
@@ -12649,10 +12649,10 @@
         <v>1287.012048</v>
       </c>
       <c r="L108" s="2">
-        <v>795.8703</v>
+        <v>714.6525</v>
       </c>
       <c r="M108" s="2">
-        <v>757.4614</v>
+        <v>303.579</v>
       </c>
       <c r="T108">
         <v>35.2706</v>
@@ -12681,10 +12681,10 @@
         <v>1244.36073</v>
       </c>
       <c r="L109" s="2">
-        <v>778.5567</v>
+        <v>756.3283</v>
       </c>
       <c r="M109" s="2">
-        <v>739.714</v>
+        <v>30.0931</v>
       </c>
       <c r="T109">
         <v>47.6767</v>
@@ -12713,10 +12713,10 @@
         <v>1251.360544</v>
       </c>
       <c r="L110" s="2">
-        <v>21.6224</v>
+        <v>755.027</v>
       </c>
       <c r="M110" s="2">
-        <v>698.5816</v>
+        <v>26.2644</v>
       </c>
       <c r="T110">
         <v>119.251</v>
@@ -12745,10 +12745,10 @@
         <v>1275.846867</v>
       </c>
       <c r="L111" s="2">
-        <v>51.8472</v>
+        <v>323.4028</v>
       </c>
       <c r="M111" s="2">
-        <v>90.3047</v>
+        <v>762.0946</v>
       </c>
       <c r="T111">
         <v>109.779</v>
@@ -12777,10 +12777,10 @@
         <v>1266.659038</v>
       </c>
       <c r="L112" s="2">
-        <v>712.4367</v>
+        <v>125.0344</v>
       </c>
       <c r="M112" s="2">
-        <v>17.2949</v>
+        <v>697.2467</v>
       </c>
       <c r="T112">
         <v>21.1194</v>
@@ -12809,10 +12809,10 @@
         <v>1284.285714</v>
       </c>
       <c r="L113" s="2">
-        <v>762.0774</v>
+        <v>28.545</v>
       </c>
       <c r="M113" s="2">
-        <v>765.0256</v>
+        <v>762.6346</v>
       </c>
       <c r="T113">
         <v>121.727</v>
@@ -12841,10 +12841,10 @@
         <v>1261.569506</v>
       </c>
       <c r="L114" s="2">
-        <v>479.0181</v>
+        <v>771.2532</v>
       </c>
       <c r="M114" s="2">
-        <v>705.5625</v>
+        <v>787.7492</v>
       </c>
       <c r="T114">
         <v>86.9108</v>
@@ -12873,10 +12873,10 @@
         <v>1274.260089</v>
       </c>
       <c r="L115" s="2">
-        <v>826.961</v>
+        <v>824.4691</v>
       </c>
       <c r="M115" s="2">
-        <v>779.1573</v>
+        <v>151.6464</v>
       </c>
       <c r="T115">
         <v>24.9284</v>
@@ -12905,10 +12905,10 @@
         <v>1277.537154</v>
       </c>
       <c r="L116" s="2">
-        <v>109.7222</v>
+        <v>823.2928</v>
       </c>
       <c r="M116" s="2">
-        <v>122.8564</v>
+        <v>27.011</v>
       </c>
       <c r="T116">
         <v>54.4223</v>
@@ -12937,10 +12937,10 @@
         <v>1270.58212</v>
       </c>
       <c r="L117" s="2">
-        <v>20.2014</v>
+        <v>791.5569</v>
       </c>
       <c r="M117" s="2">
-        <v>141.7333</v>
+        <v>758.2033</v>
       </c>
       <c r="T117">
         <v>31.8359</v>
@@ -12969,10 +12969,10 @@
         <v>1251.659919</v>
       </c>
       <c r="L118" s="2">
-        <v>815.7911</v>
+        <v>155.1599</v>
       </c>
       <c r="M118" s="2">
-        <v>27.9346</v>
+        <v>797.5107</v>
       </c>
       <c r="T118">
         <v>73.6452</v>
@@ -12998,7 +12998,7 @@
         <v>1275.528455</v>
       </c>
       <c r="M119" s="2">
-        <v>809.8145</v>
+        <v>255.1762</v>
       </c>
       <c r="T119">
         <v>44.3196</v>
@@ -13024,7 +13024,7 @@
         <v>1293.971486</v>
       </c>
       <c r="M120" s="2">
-        <v>811.5961</v>
+        <v>27.376</v>
       </c>
       <c r="U120">
         <v>21.1047</v>
@@ -13041,7 +13041,7 @@
         <v>1273.392504</v>
       </c>
       <c r="M121" s="2">
-        <v>92.1515</v>
+        <v>786.5763</v>
       </c>
       <c r="U121">
         <v>80.2086</v>
@@ -13058,7 +13058,7 @@
         <v>1245.513307</v>
       </c>
       <c r="M122" s="2">
-        <v>144.1866</v>
+        <v>780.9935</v>
       </c>
       <c r="U122">
         <v>44.1476</v>
@@ -13075,7 +13075,7 @@
         <v>1270.78544</v>
       </c>
       <c r="M123" s="2">
-        <v>28.4348</v>
+        <v>786.7189</v>
       </c>
       <c r="U123">
         <v>31.8835</v>
@@ -13092,7 +13092,7 @@
         <v>1287.992424</v>
       </c>
       <c r="M124" s="2">
-        <v>830.3777</v>
+        <v>35.1722</v>
       </c>
       <c r="U124">
         <v>73.1183</v>
@@ -13109,7 +13109,7 @@
         <v>1266.194852</v>
       </c>
       <c r="M125" s="2">
-        <v>769.8827</v>
+        <v>66.3873</v>
       </c>
       <c r="U125">
         <v>23.4868</v>
@@ -13126,7 +13126,7 @@
         <v>1302.29422</v>
       </c>
       <c r="M126" s="2">
-        <v>90.9509</v>
+        <v>816.1708</v>
       </c>
       <c r="U126">
         <v>78.7388</v>
@@ -13143,7 +13143,7 @@
         <v>1291.60596</v>
       </c>
       <c r="M127" s="2">
-        <v>653.5582</v>
+        <v>724.5722</v>
       </c>
       <c r="U127">
         <v>24.4549</v>
@@ -13160,7 +13160,7 @@
         <v>1296.260296</v>
       </c>
       <c r="M128" s="2">
-        <v>25.3486</v>
+        <v>680.65</v>
       </c>
       <c r="U128">
         <v>84.4878</v>
@@ -13177,7 +13177,7 @@
         <v>1300.163398</v>
       </c>
       <c r="M129" s="2">
-        <v>760.0052</v>
+        <v>122.4231</v>
       </c>
       <c r="U129">
         <v>23.789</v>
@@ -13194,7 +13194,7 @@
         <v>1296.276422</v>
       </c>
       <c r="M130" s="2">
-        <v>765.775</v>
+        <v>25.636</v>
       </c>
       <c r="U130">
         <v>79.9612</v>
@@ -13211,7 +13211,7 @@
         <v>1278.424437</v>
       </c>
       <c r="M131" s="2">
-        <v>776.8798</v>
+        <v>678.4793</v>
       </c>
       <c r="U131">
         <v>25.0534</v>
@@ -13228,7 +13228,7 @@
         <v>1293.267973</v>
       </c>
       <c r="M132" s="2">
-        <v>765.4897</v>
+        <v>770.9505</v>
       </c>
       <c r="U132">
         <v>77.0505</v>
@@ -13245,7 +13245,7 @@
         <v>1293.327948</v>
       </c>
       <c r="M133" s="2">
-        <v>139.1635</v>
+        <v>708.2163</v>
       </c>
       <c r="U133">
         <v>42.6512</v>
@@ -13262,7 +13262,7 @@
         <v>1287.788309</v>
       </c>
       <c r="M134" s="2">
-        <v>42.1727</v>
+        <v>127.8851</v>
       </c>
       <c r="U134">
         <v>26.5957</v>
@@ -13279,7 +13279,7 @@
         <v>1280.419906</v>
       </c>
       <c r="M135" s="2">
-        <v>735.1971</v>
+        <v>33.718</v>
       </c>
       <c r="U135">
         <v>87.4221</v>
@@ -13296,7 +13296,7 @@
         <v>1298.859375</v>
       </c>
       <c r="M136" s="2">
-        <v>832.1419</v>
+        <v>845.5949</v>
       </c>
       <c r="U136">
         <v>21.6889</v>
@@ -13313,7 +13313,7 @@
         <v>1255.075528</v>
       </c>
       <c r="M137" s="2">
-        <v>181.8181</v>
+        <v>858.2911</v>
       </c>
       <c r="U137">
         <v>34.6358</v>
@@ -13330,7 +13330,7 @@
         <v>1286.587887</v>
       </c>
       <c r="M138" s="2">
-        <v>57.7732</v>
+        <v>31.1736</v>
       </c>
       <c r="U138">
         <v>74.4399</v>
@@ -13347,7 +13347,7 @@
         <v>1281.762177</v>
       </c>
       <c r="M139" s="2">
-        <v>861.9048</v>
+        <v>810.1644</v>
       </c>
       <c r="U139">
         <v>28.1831</v>
@@ -13364,7 +13364,7 @@
         <v>1304.155844</v>
       </c>
       <c r="M140" s="2">
-        <v>445.5745</v>
+        <v>826.9825</v>
       </c>
       <c r="U140">
         <v>51.8742</v>
@@ -13381,7 +13381,7 @@
         <v>1288.081805</v>
       </c>
       <c r="M141" s="2">
-        <v>49.6473</v>
+        <v>214.2918</v>
       </c>
       <c r="U141">
         <v>25.6924</v>
@@ -13398,7 +13398,7 @@
         <v>1312.008547</v>
       </c>
       <c r="M142" s="2">
-        <v>580.8008</v>
+        <v>34.676</v>
       </c>
       <c r="U142">
         <v>45.8188</v>
@@ -13415,7 +13415,7 @@
         <v>1237.862796</v>
       </c>
       <c r="M143" s="2">
-        <v>839.7077</v>
+        <v>775.9844</v>
       </c>
       <c r="U143">
         <v>28.7416</v>
@@ -13432,7 +13432,7 @@
         <v>1196.240694</v>
       </c>
       <c r="M144" s="2">
-        <v>435.1007</v>
+        <v>836.2705</v>
       </c>
       <c r="U144">
         <v>61.1773</v>
@@ -13449,7 +13449,7 @@
         <v>1315.818673</v>
       </c>
       <c r="M145" s="2">
-        <v>50.5938</v>
+        <v>33.0929</v>
       </c>
       <c r="U145">
         <v>27.1742</v>
@@ -13466,7 +13466,7 @@
         <v>1258.665803</v>
       </c>
       <c r="M146" s="2">
-        <v>863.4687</v>
+        <v>843.8603</v>
       </c>
       <c r="U146">
         <v>49.1634</v>
@@ -13483,7 +13483,7 @@
         <v>1120.807381</v>
       </c>
       <c r="M147" s="2">
-        <v>834.6199</v>
+        <v>771.8255</v>
       </c>
       <c r="U147">
         <v>29.4563</v>
@@ -13500,7 +13500,7 @@
         <v>1301.004016</v>
       </c>
       <c r="M148" s="2">
-        <v>162.5384</v>
+        <v>184.257</v>
       </c>
       <c r="U148">
         <v>51.5878</v>
@@ -13517,7 +13517,7 @@
         <v>1311.632928</v>
       </c>
       <c r="M149" s="2">
-        <v>85.4275</v>
+        <v>41.2887</v>
       </c>
       <c r="U149">
         <v>27.8248</v>
@@ -13534,7 +13534,7 @@
         <v>1302.935656</v>
       </c>
       <c r="M150" s="2">
-        <v>870.0574</v>
+        <v>811.1255</v>
       </c>
       <c r="U150">
         <v>50.4385</v>
@@ -13551,7 +13551,7 @@
         <v>1313.513513</v>
       </c>
       <c r="M151" s="2">
-        <v>364.6425</v>
+        <v>259.6737</v>
       </c>
       <c r="U151">
         <v>28.4738</v>
@@ -13568,7 +13568,7 @@
         <v>1290.863213</v>
       </c>
       <c r="M152" s="2">
-        <v>51.6399</v>
+        <v>33.9493</v>
       </c>
       <c r="U152">
         <v>45.8845</v>
@@ -13585,7 +13585,7 @@
         <v>1317.675324</v>
       </c>
       <c r="M153" s="2">
-        <v>813.9824</v>
+        <v>805.8032</v>
       </c>
       <c r="U153">
         <v>27.0846</v>
@@ -13602,7 +13602,7 @@
         <v>1309.174193</v>
       </c>
       <c r="M154" s="2">
-        <v>714.2608</v>
+        <v>871.4209</v>
       </c>
       <c r="U154">
         <v>54.2291</v>
@@ -13619,7 +13619,7 @@
         <v>1309.238709</v>
       </c>
       <c r="M155" s="2">
-        <v>282.3007</v>
+        <v>32.9397</v>
       </c>
       <c r="U155">
         <v>29.2754</v>
@@ -13636,7 +13636,7 @@
         <v>1304.305912</v>
       </c>
       <c r="M156" s="2">
-        <v>42.6082</v>
+        <v>813.71</v>
       </c>
       <c r="U156">
         <v>47.4544</v>
@@ -13653,7 +13653,7 @@
         <v>1227.061668</v>
       </c>
       <c r="M157" s="2">
-        <v>856.0182</v>
+        <v>819.6263</v>
       </c>
       <c r="U157">
         <v>29.5093</v>
@@ -13670,7 +13670,7 @@
         <v>1306.087516</v>
       </c>
       <c r="M158" s="2">
-        <v>802.253</v>
+        <v>218.1843</v>
       </c>
       <c r="U158">
         <v>37.3927</v>
@@ -13687,7 +13687,7 @@
         <v>1294.502551</v>
       </c>
       <c r="M159" s="2">
-        <v>41.0131</v>
+        <v>35.6642</v>
       </c>
       <c r="U159">
         <v>33.6424</v>
@@ -13704,7 +13704,7 @@
         <v>1316.355382</v>
       </c>
       <c r="M160" s="2">
-        <v>138.4807</v>
+        <v>834.4555</v>
       </c>
       <c r="U160">
         <v>49.3652</v>
@@ -13721,7 +13721,7 @@
         <v>1320.168175</v>
       </c>
       <c r="M161" s="2">
-        <v>857.7363</v>
+        <v>855.2522</v>
       </c>
       <c r="U161">
         <v>27.825</v>
@@ -13738,7 +13738,7 @@
         <v>1300.038216</v>
       </c>
       <c r="M162" s="2">
-        <v>240.2915</v>
+        <v>33.1803</v>
       </c>
       <c r="U162">
         <v>50.8995</v>
@@ -13755,7 +13755,7 @@
         <v>1300.114649</v>
       </c>
       <c r="M163" s="2">
-        <v>36.825</v>
+        <v>815.6928</v>
       </c>
       <c r="U163">
         <v>29.8117</v>
@@ -13772,7 +13772,7 @@
         <v>1209.241706</v>
       </c>
       <c r="M164" s="2">
-        <v>870.2034</v>
+        <v>865.5025</v>
       </c>
       <c r="U164">
         <v>50.1396</v>
@@ -13789,7 +13789,7 @@
         <v>1293.624841</v>
       </c>
       <c r="M165" s="2">
-        <v>878.005</v>
+        <v>143.4897</v>
       </c>
       <c r="U165">
         <v>30.8487</v>
@@ -13806,7 +13806,7 @@
         <v>1318.70801</v>
       </c>
       <c r="M166" s="2">
-        <v>34.5828</v>
+        <v>42.7676</v>
       </c>
       <c r="U166">
         <v>38.4663</v>
@@ -13823,7 +13823,7 @@
         <v>1288.787878</v>
       </c>
       <c r="M167" s="2">
-        <v>138.0183</v>
+        <v>846.7926</v>
       </c>
       <c r="U167">
         <v>34.8533</v>
@@ -13840,7 +13840,7 @@
         <v>1322.189119</v>
       </c>
       <c r="M168" s="2">
-        <v>829.7388</v>
+        <v>223.9641</v>
       </c>
       <c r="U168">
         <v>42.358</v>
@@ -13857,7 +13857,7 @@
         <v>1303.614303</v>
       </c>
       <c r="M169" s="2">
-        <v>874.7249</v>
+        <v>42.8682</v>
       </c>
       <c r="U169">
         <v>74.5894</v>
@@ -13874,7 +13874,7 @@
         <v>1301.125</v>
       </c>
       <c r="M170" s="2">
-        <v>40.4768</v>
+        <v>807.138</v>
       </c>
       <c r="U170">
         <v>32.0818</v>
@@ -13891,7 +13891,7 @@
         <v>1289.876084</v>
       </c>
       <c r="M171" s="2">
-        <v>851.4812</v>
+        <v>194.0698</v>
       </c>
       <c r="U171">
         <v>39.8966</v>
@@ -13908,7 +13908,7 @@
         <v>1306.097867</v>
       </c>
       <c r="M172" s="2">
-        <v>814.8889</v>
+        <v>42.2402</v>
       </c>
       <c r="U172">
         <v>57.1103</v>
@@ -13925,7 +13925,7 @@
         <v>1309.534591</v>
       </c>
       <c r="M173" s="2">
-        <v>34.1288</v>
+        <v>805.8691</v>
       </c>
       <c r="U173">
         <v>32.5954</v>
@@ -13942,7 +13942,7 @@
         <v>1312.875157</v>
       </c>
       <c r="M174" s="2">
-        <v>874.1312</v>
+        <v>186.5575</v>
       </c>
       <c r="U174">
         <v>50.0391</v>
@@ -13959,7 +13959,7 @@
         <v>1304.686716</v>
       </c>
       <c r="M175" s="2">
-        <v>855.6424</v>
+        <v>42.4851</v>
       </c>
       <c r="U175">
         <v>28.7148</v>
@@ -13976,7 +13976,7 @@
         <v>1298.241895</v>
       </c>
       <c r="M176" s="2">
-        <v>66.5029</v>
+        <v>819.5411</v>
       </c>
       <c r="U176">
         <v>53.8395</v>
@@ -13993,7 +13993,7 @@
         <v>1322.998729</v>
       </c>
       <c r="M177" s="2">
-        <v>72.507</v>
+        <v>187.1889</v>
       </c>
       <c r="U177">
         <v>31.1941</v>
@@ -14010,7 +14010,7 @@
         <v>1308.599269</v>
       </c>
       <c r="M178" s="2">
-        <v>816.672</v>
+        <v>43.6442</v>
       </c>
       <c r="U178">
         <v>37.766</v>
@@ -14027,7 +14027,7 @@
         <v>1295.971049</v>
       </c>
       <c r="M179" s="2">
-        <v>182.2923</v>
+        <v>814.8915</v>
       </c>
       <c r="U179">
         <v>35.5075</v>
@@ -14044,7 +14044,7 @@
         <v>1313.447432</v>
       </c>
       <c r="M180" s="2">
-        <v>45.9222</v>
+        <v>185.9414</v>
       </c>
       <c r="U180">
         <v>75.4368</v>
@@ -14061,7 +14061,7 @@
         <v>1318.355828</v>
       </c>
       <c r="M181" s="2">
-        <v>817.678</v>
+        <v>41.5466</v>
       </c>
       <c r="U181">
         <v>33.9349</v>
@@ -14078,7 +14078,7 @@
         <v>1307.177615</v>
       </c>
       <c r="M182" s="2">
-        <v>185.6105</v>
+        <v>851.5005</v>
       </c>
       <c r="U182">
         <v>52.2146</v>
@@ -14095,7 +14095,7 @@
         <v>1300.87167</v>
       </c>
       <c r="M183" s="2">
-        <v>45.2904</v>
+        <v>189.298</v>
       </c>
       <c r="U183">
         <v>33.1182</v>
@@ -14112,7 +14112,7 @@
         <v>1310.402439</v>
       </c>
       <c r="M184" s="2">
-        <v>843.6285</v>
+        <v>42.6488</v>
       </c>
       <c r="U184">
         <v>48.3619</v>
@@ -14129,7 +14129,7 @@
         <v>1300.895883</v>
       </c>
       <c r="M185" s="2">
-        <v>189.3929</v>
+        <v>811.6638</v>
       </c>
       <c r="U185">
         <v>29.0175</v>
@@ -14146,7 +14146,7 @@
         <v>1309.299516</v>
       </c>
       <c r="M186" s="2">
-        <v>45.4752</v>
+        <v>179.6267</v>
       </c>
       <c r="U186">
         <v>32.5608</v>
@@ -14163,7 +14163,7 @@
         <v>1320.511571</v>
       </c>
       <c r="M187" s="2">
-        <v>880.6999</v>
+        <v>42.9255</v>
       </c>
       <c r="U187">
         <v>77.3561</v>
@@ -14180,7 +14180,7 @@
         <v>1317.351154</v>
       </c>
       <c r="M188" s="2">
-        <v>187.6159</v>
+        <v>848.6915</v>
       </c>
       <c r="U188">
         <v>32.9918</v>
@@ -14197,7 +14197,7 @@
         <v>1317.411907</v>
       </c>
       <c r="M189" s="2">
-        <v>45.3339</v>
+        <v>164.5507</v>
       </c>
       <c r="U189">
         <v>49.2039</v>
@@ -14214,7 +14214,7 @@
         <v>1226.538461</v>
       </c>
       <c r="M190" s="2">
-        <v>852.4843</v>
+        <v>43.786</v>
       </c>
       <c r="U190">
         <v>32.5648</v>
@@ -14231,7 +14231,7 @@
         <v>1312.711864</v>
       </c>
       <c r="M191" s="2">
-        <v>183.9595</v>
+        <v>871.5297</v>
       </c>
       <c r="U191">
         <v>45.2622</v>
@@ -14248,7 +14248,7 @@
         <v>1328.835784</v>
       </c>
       <c r="M192" s="2">
-        <v>45.3859</v>
+        <v>182.3858</v>
       </c>
       <c r="U192">
         <v>20.5374</v>
@@ -14265,7 +14265,7 @@
         <v>1303.293269</v>
       </c>
       <c r="M193" s="2">
-        <v>822.079</v>
+        <v>42.9948</v>
       </c>
       <c r="U193">
         <v>39.505</v>
@@ -14282,7 +14282,7 @@
         <v>1234.224719</v>
       </c>
       <c r="M194" s="2">
-        <v>108.9089</v>
+        <v>823.9807</v>
       </c>
       <c r="U194">
         <v>22.2648</v>
@@ -14299,7 +14299,7 @@
         <v>1318.739495</v>
       </c>
       <c r="M195" s="2">
-        <v>53.5544</v>
+        <v>139.4661</v>
       </c>
       <c r="U195">
         <v>46.1588</v>
@@ -14316,7 +14316,7 @@
         <v>1306.147443</v>
       </c>
       <c r="M196" s="2">
-        <v>828.1687</v>
+        <v>46.2541</v>
       </c>
       <c r="U196">
         <v>28.2667</v>
@@ -14333,7 +14333,7 @@
         <v>1315.592814</v>
       </c>
       <c r="M197" s="2">
-        <v>92.0567</v>
+        <v>856.2386</v>
       </c>
       <c r="U197">
         <v>56.7097</v>
@@ -14350,7 +14350,7 @@
         <v>1318.823529</v>
       </c>
       <c r="M198" s="2">
-        <v>58.3821</v>
+        <v>116.411</v>
       </c>
       <c r="U198">
         <v>30.687</v>
@@ -14367,7 +14367,7 @@
         <v>1322.033694</v>
       </c>
       <c r="M199" s="2">
-        <v>858.5623</v>
+        <v>48.1203</v>
       </c>
       <c r="U199">
         <v>31.2344</v>
@@ -14384,7 +14384,7 @@
         <v>1311.014319</v>
       </c>
       <c r="M200" s="2">
-        <v>138.1907</v>
+        <v>850.2556</v>
       </c>
       <c r="U200">
         <v>60.094</v>
@@ -14401,7 +14401,7 @@
         <v>1317.326139</v>
       </c>
       <c r="M201" s="2">
-        <v>48.4137</v>
+        <v>88.8016</v>
       </c>
       <c r="U201">
         <v>28.4399</v>
@@ -14418,7 +14418,7 @@
         <v>1325.283474</v>
       </c>
       <c r="M202" s="2">
-        <v>804.9561</v>
+        <v>55.5693</v>
       </c>
       <c r="U202">
         <v>31.7982</v>
@@ -14435,7 +14435,7 @@
         <v>1308.721893</v>
       </c>
       <c r="M203" s="2">
-        <v>68.3859</v>
+        <v>898.1074</v>
       </c>
       <c r="U203">
         <v>33.1228</v>
@@ -14452,7 +14452,7 @@
         <v>1319.749403</v>
       </c>
       <c r="M204" s="2">
-        <v>77.6167</v>
+        <v>46.541</v>
       </c>
       <c r="U204">
         <v>70.1429</v>
@@ -14469,7 +14469,7 @@
         <v>1187.991407</v>
       </c>
       <c r="M205" s="2">
-        <v>894.5888</v>
+        <v>39.8355</v>
       </c>
       <c r="U205">
         <v>27.907</v>
@@ -14486,7 +14486,7 @@
         <v>1298.169014</v>
       </c>
       <c r="M206" s="2">
-        <v>46.3743</v>
+        <v>170.4537</v>
       </c>
       <c r="U206">
         <v>77.446</v>
@@ -14503,7 +14503,7 @@
         <v>1310.49763</v>
       </c>
       <c r="M207" s="2">
-        <v>167.0122</v>
+        <v>777.0102</v>
       </c>
       <c r="U207">
         <v>28.3913</v>
@@ -14520,7 +14520,7 @@
         <v>1321.493428</v>
       </c>
       <c r="M208" s="2">
-        <v>830.6719</v>
+        <v>33.3952</v>
       </c>
       <c r="U208">
         <v>80.154</v>
@@ -14537,7 +14537,7 @@
         <v>1305.9268</v>
       </c>
       <c r="M209" s="2">
-        <v>38.5739</v>
+        <v>128.7137</v>
       </c>
       <c r="U209">
         <v>33.6139</v>
@@ -14554,7 +14554,7 @@
         <v>1320.023866</v>
       </c>
       <c r="M210" s="2">
-        <v>827.4209</v>
+        <v>578.9446</v>
       </c>
       <c r="U210">
         <v>31.7659</v>
@@ -14571,7 +14571,7 @@
         <v>1298.333333</v>
       </c>
       <c r="M211" s="2">
-        <v>888.3136</v>
+        <v>36.6324</v>
       </c>
       <c r="U211">
         <v>80.7307</v>
@@ -14588,7 +14588,7 @@
         <v>1316.806818</v>
       </c>
       <c r="M212" s="2">
-        <v>39.2837</v>
+        <v>829.379</v>
       </c>
       <c r="U212">
         <v>29.5561</v>
@@ -14605,7 +14605,7 @@
         <v>1315.346197</v>
       </c>
       <c r="M213" s="2">
-        <v>871.4393</v>
+        <v>46.7133</v>
       </c>
       <c r="U213">
         <v>90.6354</v>
@@ -14622,7 +14622,7 @@
         <v>1327.42268</v>
       </c>
       <c r="M214" s="2">
-        <v>825.1085</v>
+        <v>675.4196</v>
       </c>
       <c r="U214">
         <v>32.3929</v>
@@ -14639,7 +14639,7 @@
         <v>1312.412231</v>
       </c>
       <c r="M215" s="2">
-        <v>38.8968</v>
+        <v>65.8099</v>
       </c>
       <c r="U215">
         <v>33.6546</v>
@@ -14656,7 +14656,7 @@
         <v>1327.479954</v>
       </c>
       <c r="M216" s="2">
-        <v>890.8895</v>
+        <v>37.3362</v>
       </c>
       <c r="U216">
         <v>79.5639</v>
@@ -14673,7 +14673,7 @@
         <v>1333.624856</v>
       </c>
       <c r="M217" s="2">
-        <v>636.1261</v>
+        <v>246.3682</v>
       </c>
       <c r="U217">
         <v>34.6285</v>
@@ -14690,7 +14690,7 @@
         <v>1057.436131</v>
       </c>
       <c r="M218" s="2">
-        <v>40.0525</v>
+        <v>303.7276</v>
       </c>
       <c r="U218">
         <v>30.8605</v>
@@ -14707,7 +14707,7 @@
         <v>914.022082</v>
       </c>
       <c r="M219" s="2">
-        <v>865.1915</v>
+        <v>24.7624</v>
       </c>
       <c r="U219">
         <v>86.1964</v>
@@ -14724,7 +14724,7 @@
         <v>1294.31016</v>
       </c>
       <c r="M220" s="2">
-        <v>834.3032</v>
+        <v>56.4204</v>
       </c>
       <c r="U220">
         <v>34.5738</v>
@@ -14741,7 +14741,7 @@
         <v>1277.961985</v>
       </c>
       <c r="M221" s="2">
-        <v>50.3971</v>
+        <v>780.4684</v>
       </c>
       <c r="U221">
         <v>33.1967</v>
@@ -14758,7 +14758,7 @@
         <v>1308.389189</v>
       </c>
       <c r="M222" s="2">
-        <v>137.9171</v>
+        <v>593.4413</v>
       </c>
       <c r="U222">
         <v>84.3429</v>
@@ -14775,7 +14775,7 @@
         <v>931.732101</v>
       </c>
       <c r="M223" s="2">
-        <v>792.8421</v>
+        <v>58.7242</v>
       </c>
       <c r="U223">
         <v>34.2722</v>
@@ -14792,7 +14792,7 @@
         <v>1011.152882</v>
       </c>
       <c r="M224" s="2">
-        <v>839.3719</v>
+        <v>824.8106</v>
       </c>
       <c r="U224">
         <v>32.3423</v>
@@ -14809,7 +14809,7 @@
         <v>1048.864818</v>
       </c>
       <c r="M225" s="2">
-        <v>104.3947</v>
+        <v>835.2727</v>
       </c>
       <c r="U225">
         <v>72.4039</v>
@@ -14826,7 +14826,7 @@
         <v>1317.138193</v>
       </c>
       <c r="M226" s="2">
-        <v>75.6391</v>
+        <v>43.9821</v>
       </c>
       <c r="U226">
         <v>37.7505</v>
@@ -14843,7 +14843,7 @@
         <v>1305.814455</v>
       </c>
       <c r="M227" s="2">
-        <v>787.9642</v>
+        <v>801.4724</v>
       </c>
       <c r="U227">
         <v>33.6092</v>
@@ -14860,7 +14860,7 @@
         <v>1301.60215</v>
       </c>
       <c r="M228" s="2">
-        <v>527.0657</v>
+        <v>779.7209</v>
       </c>
       <c r="U228">
         <v>31.1543</v>
@@ -14877,7 +14877,7 @@
         <v>1317.587628</v>
       </c>
       <c r="M229" s="2">
-        <v>61.8318</v>
+        <v>317.7584</v>
       </c>
       <c r="U229">
         <v>67.3274</v>
@@ -14894,7 +14894,7 @@
         <v>1209.24314</v>
       </c>
       <c r="M230" s="2">
-        <v>895.0109</v>
+        <v>60.5291</v>
       </c>
       <c r="U230">
         <v>27.9193</v>
@@ -14911,7 +14911,7 @@
         <v>1306.96319</v>
       </c>
       <c r="M231" s="2">
-        <v>472.7861</v>
+        <v>916.2976</v>
       </c>
       <c r="U231">
         <v>54.4344</v>
@@ -14928,7 +14928,7 @@
         <v>1320.506198</v>
       </c>
       <c r="M232" s="2">
-        <v>61.7095</v>
+        <v>319.1349</v>
       </c>
       <c r="U232">
         <v>25.7742</v>
@@ -14945,7 +14945,7 @@
         <v>1323.271221</v>
       </c>
       <c r="M233" s="2">
-        <v>880.3223</v>
+        <v>45.4921</v>
       </c>
       <c r="U233">
         <v>36.554</v>
@@ -14962,7 +14962,7 @@
         <v>1292.497472</v>
       </c>
       <c r="M234" s="2">
-        <v>462.4127</v>
+        <v>890.0611</v>
       </c>
       <c r="U234">
         <v>36.1283</v>
@@ -14979,7 +14979,7 @@
         <v>1327.41433</v>
       </c>
       <c r="M235" s="2">
-        <v>62.1231</v>
+        <v>298.1593</v>
       </c>
       <c r="U235">
         <v>30.4648</v>
@@ -14996,7 +14996,7 @@
         <v>1299.105691</v>
       </c>
       <c r="M236" s="2">
-        <v>915.7804</v>
+        <v>47.7278</v>
       </c>
       <c r="U236">
         <v>52.5063</v>
@@ -15013,7 +15013,7 @@
         <v>988.595419</v>
       </c>
       <c r="M237" s="2">
-        <v>413.6586</v>
+        <v>831.8342</v>
       </c>
       <c r="U237">
         <v>28.8926</v>
@@ -15030,7 +15030,7 @@
         <v>1328.297435</v>
       </c>
       <c r="M238" s="2">
-        <v>66.8307</v>
+        <v>43.0488</v>
       </c>
       <c r="U238">
         <v>51.4212</v>
@@ -15047,7 +15047,7 @@
         <v>1310.890688</v>
       </c>
       <c r="M239" s="2">
-        <v>896.7157</v>
+        <v>109.3239</v>
       </c>
       <c r="U239">
         <v>32.0819</v>
@@ -15064,7 +15064,7 @@
         <v>1313.620689</v>
       </c>
       <c r="M240" s="2">
-        <v>314.6652</v>
+        <v>100.5344</v>
       </c>
       <c r="U240">
         <v>45.865</v>
@@ -15081,7 +15081,7 @@
         <v>1261.226874</v>
       </c>
       <c r="M241" s="2">
-        <v>63.5465</v>
+        <v>847.5484</v>
       </c>
       <c r="U241">
         <v>29.167</v>
@@ -15098,7 +15098,7 @@
         <v>1335.381443</v>
       </c>
       <c r="M242" s="2">
-        <v>839.7722</v>
+        <v>859.4039</v>
       </c>
       <c r="U242">
         <v>26.1134</v>
@@ -15115,7 +15115,7 @@
         <v>1297.945891</v>
       </c>
       <c r="M243" s="2">
-        <v>287.1743</v>
+        <v>42.9938</v>
       </c>
       <c r="U243">
         <v>32.8121</v>
@@ -15132,7 +15132,7 @@
         <v>1290.209163</v>
       </c>
       <c r="M244" s="2">
-        <v>60.6284</v>
+        <v>914.8582</v>
       </c>
       <c r="U244">
         <v>30.4945</v>
@@ -15149,7 +15149,7 @@
         <v>1323.186925</v>
       </c>
       <c r="M245" s="2">
-        <v>839.8294</v>
+        <v>234.4385</v>
       </c>
       <c r="U245">
         <v>37.6349</v>
@@ -15166,7 +15166,7 @@
         <v>1303.41974</v>
       </c>
       <c r="M246" s="2">
-        <v>300.378</v>
+        <v>53.6561</v>
       </c>
       <c r="U246">
         <v>28.8137</v>
@@ -15183,7 +15183,7 @@
         <v>1327.258883</v>
       </c>
       <c r="M247" s="2">
-        <v>66.9634</v>
+        <v>900.3247</v>
       </c>
       <c r="U247">
         <v>39.7774</v>
@@ -15200,7 +15200,7 @@
         <v>1315.372233</v>
       </c>
       <c r="M248" s="2">
-        <v>838.2042</v>
+        <v>41.0026</v>
       </c>
       <c r="U248">
         <v>28.5129</v>
@@ -15217,7 +15217,7 @@
         <v>1326.064908</v>
       </c>
       <c r="M249" s="2">
-        <v>278.0764</v>
+        <v>889.7781</v>
       </c>
       <c r="U249">
         <v>28.7339</v>
@@ -15234,7 +15234,7 @@
         <v>1252.423371</v>
       </c>
       <c r="M250" s="2">
-        <v>65.0889</v>
+        <v>383.0402</v>
       </c>
       <c r="U250">
         <v>30.3449</v>
@@ -15251,7 +15251,7 @@
         <v>1311.494483</v>
       </c>
       <c r="M251" s="2">
-        <v>859.9623</v>
+        <v>41.5835</v>
       </c>
       <c r="U251">
         <v>43.047</v>
@@ -15268,7 +15268,7 @@
         <v>1331.568228</v>
       </c>
       <c r="M252" s="2">
-        <v>364.7415</v>
+        <v>909.4908</v>
       </c>
       <c r="U252">
         <v>24.241</v>
@@ -15285,7 +15285,7 @@
         <v>1314.201005</v>
       </c>
       <c r="M253" s="2">
-        <v>66.6127</v>
+        <v>252.2568</v>
       </c>
       <c r="U253">
         <v>25.5757</v>
@@ -15302,7 +15302,7 @@
         <v>1318.195564</v>
       </c>
       <c r="M254" s="2">
-        <v>915.9026</v>
+        <v>53.7929</v>
       </c>
       <c r="U254">
         <v>61.3126</v>
@@ -15319,7 +15319,7 @@
         <v>1314.354354</v>
       </c>
       <c r="M255" s="2">
-        <v>301.2716</v>
+        <v>901.3788</v>
       </c>
       <c r="U255">
         <v>24.9331</v>
@@ -15336,7 +15336,7 @@
         <v>1250.390848</v>
       </c>
       <c r="M256" s="2">
-        <v>67.6009</v>
+        <v>40.8502</v>
       </c>
       <c r="U256">
         <v>26.9547</v>
@@ -15353,7 +15353,7 @@
         <v>1320.916414</v>
       </c>
       <c r="M257" s="2">
-        <v>922.0695</v>
+        <v>879.5355</v>
       </c>
       <c r="U257">
         <v>46.0958</v>
@@ -15370,7 +15370,7 @@
         <v>1310.44955</v>
       </c>
       <c r="M258" s="2">
-        <v>317.8073</v>
+        <v>317.426</v>
       </c>
       <c r="U258">
         <v>26.0745</v>
@@ -15387,7 +15387,7 @@
         <v>1311.78</v>
       </c>
       <c r="M259" s="2">
-        <v>68.5893</v>
+        <v>42.9229</v>
       </c>
       <c r="U259">
         <v>46.4941</v>
@@ -15404,7 +15404,7 @@
         <v>1307.88634</v>
       </c>
       <c r="M260" s="2">
-        <v>905.009</v>
+        <v>904.8836</v>
       </c>
       <c r="U260">
         <v>23.3342</v>
@@ -15421,7 +15421,7 @@
         <v>1302.730883</v>
       </c>
       <c r="M261" s="2">
-        <v>309.8618</v>
+        <v>232.5476</v>
       </c>
       <c r="U261">
         <v>25.799</v>
@@ -15438,7 +15438,7 @@
         <v>1322.439516</v>
       </c>
       <c r="M262" s="2">
-        <v>66.8223</v>
+        <v>53.1541</v>
       </c>
       <c r="U262">
         <v>30.8652</v>
@@ -15455,7 +15455,7 @@
         <v>1314.664694</v>
       </c>
       <c r="M263" s="2">
-        <v>906.9991</v>
+        <v>892.9654</v>
       </c>
       <c r="U263">
         <v>25.9006</v>
@@ -15472,7 +15472,7 @@
         <v>1313.389162</v>
       </c>
       <c r="M264" s="2">
-        <v>318.2095</v>
+        <v>43.8809</v>
       </c>
       <c r="U264">
         <v>65.832</v>
@@ -15489,7 +15489,7 @@
         <v>1323.88282</v>
       </c>
       <c r="M265" s="2">
-        <v>64.7457</v>
+        <v>895.4094</v>
       </c>
       <c r="U265">
         <v>25.0111</v>
@@ -15506,7 +15506,7 @@
         <v>1299.415204</v>
       </c>
       <c r="M266" s="2">
-        <v>913.2187</v>
+        <v>238.6333</v>
       </c>
       <c r="U266">
         <v>41.4064</v>
@@ -15523,7 +15523,7 @@
         <v>1320.049504</v>
       </c>
       <c r="M267" s="2">
-        <v>335.289</v>
+        <v>53.3929</v>
       </c>
       <c r="U267">
         <v>24.137</v>
@@ -15540,7 +15540,7 @@
         <v>1316.179664</v>
       </c>
       <c r="M268" s="2">
-        <v>61.1548</v>
+        <v>874.7604</v>
       </c>
       <c r="U268">
         <v>30.3364</v>
@@ -15557,7 +15557,7 @@
         <v>1311.042281</v>
       </c>
       <c r="M269" s="2">
-        <v>854.9332</v>
+        <v>42.6056</v>
       </c>
       <c r="U269">
         <v>33.6883</v>
@@ -15574,7 +15574,7 @@
         <v>1307.22549</v>
       </c>
       <c r="M270" s="2">
-        <v>656.496</v>
+        <v>888.0454</v>
       </c>
       <c r="U270">
         <v>23.1388</v>
@@ -15591,7 +15591,7 @@
         <v>1325.527093</v>
       </c>
       <c r="M271" s="2">
-        <v>77.1903</v>
+        <v>229.4817</v>
       </c>
       <c r="U271">
         <v>26.2847</v>
